--- a/Code/Results/Cases/Case_5_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.647111162131466</v>
+        <v>4.015866435758426</v>
       </c>
       <c r="C2">
-        <v>0.5374036621656728</v>
+        <v>0.5756047485130011</v>
       </c>
       <c r="D2">
-        <v>0.2280317359461606</v>
+        <v>0.02330155442173343</v>
       </c>
       <c r="E2">
-        <v>0.02498268960233219</v>
+        <v>0.02738062657657547</v>
       </c>
       <c r="F2">
-        <v>6.574623152484691</v>
+        <v>1.661546691615854</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,36 +445,42 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08427984834489521</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.08838237931318815</v>
+        <v>0.3438654086110802</v>
       </c>
       <c r="M2">
-        <v>0.5728770342204115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.7505431414424173</v>
+      </c>
+      <c r="O2">
+        <v>1.301319786982035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.269743902698224</v>
+        <v>3.480477267725689</v>
       </c>
       <c r="C3">
-        <v>0.4583517734622546</v>
+        <v>0.502013595870352</v>
       </c>
       <c r="D3">
-        <v>0.2013966196435177</v>
+        <v>0.02517737710891765</v>
       </c>
       <c r="E3">
-        <v>0.02341408015418445</v>
+        <v>0.02727171841762299</v>
       </c>
       <c r="F3">
-        <v>5.792083664844199</v>
+        <v>1.497481113504776</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,36 +492,42 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07637731828950933</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07671515769647286</v>
+        <v>0.3011745758114444</v>
       </c>
       <c r="M3">
-        <v>0.4926525648260167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.8031817235190069</v>
+      </c>
+      <c r="O3">
+        <v>1.181188932680087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.044560474007938</v>
+        <v>3.156516537435493</v>
       </c>
       <c r="C4">
-        <v>0.4111672543944564</v>
+        <v>0.4572151118869954</v>
       </c>
       <c r="D4">
-        <v>0.1854658302397922</v>
+        <v>0.02638825826430669</v>
       </c>
       <c r="E4">
-        <v>0.02248653670784506</v>
+        <v>0.02724558549820788</v>
       </c>
       <c r="F4">
-        <v>5.324405793077432</v>
+        <v>1.400650675136347</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -521,36 +539,42 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07166114183678118</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06977162283706306</v>
+        <v>0.2754824837440992</v>
       </c>
       <c r="M4">
-        <v>0.4448194738290923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.8371042025093729</v>
+      </c>
+      <c r="O4">
+        <v>1.110627921832062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.954198232733916</v>
+        <v>3.025537596035633</v>
       </c>
       <c r="C5">
-        <v>0.3922232461154351</v>
+        <v>0.4390361128247662</v>
       </c>
       <c r="D5">
-        <v>0.1790627295061853</v>
+        <v>0.02689571614605413</v>
       </c>
       <c r="E5">
-        <v>0.02211648078413653</v>
+        <v>0.02724472087093144</v>
       </c>
       <c r="F5">
-        <v>5.136566011828279</v>
+        <v>1.362078356299108</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -562,36 +586,42 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06976837443090211</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06699012221698197</v>
+        <v>0.2651284464841126</v>
       </c>
       <c r="M5">
-        <v>0.4256349817316689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.8513126332120358</v>
+      </c>
+      <c r="O5">
+        <v>1.082602022900815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.939271875119118</v>
+        <v>3.003846832895647</v>
       </c>
       <c r="C6">
-        <v>0.3890932454789606</v>
+        <v>0.4360215723293663</v>
       </c>
       <c r="D6">
-        <v>0.178004386052308</v>
+        <v>0.02698080229688671</v>
       </c>
       <c r="E6">
-        <v>0.02205548415871661</v>
+        <v>0.02724515550547402</v>
       </c>
       <c r="F6">
-        <v>5.105528058375342</v>
+        <v>1.35572437106616</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -603,36 +633,42 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06945570194786299</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06653095950882815</v>
+        <v>0.2634157351568263</v>
       </c>
       <c r="M6">
-        <v>0.4224666400995574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.8536946680683641</v>
+      </c>
+      <c r="O6">
+        <v>1.077990214992525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.043336435989772</v>
+        <v>3.154746112464011</v>
       </c>
       <c r="C7">
-        <v>0.4109106882344236</v>
+        <v>0.456969658656476</v>
       </c>
       <c r="D7">
-        <v>0.1853791379997318</v>
+        <v>0.02639504633867684</v>
       </c>
       <c r="E7">
-        <v>0.02248151518503327</v>
+        <v>0.02724553480084424</v>
       </c>
       <c r="F7">
-        <v>5.321862007134314</v>
+        <v>1.400127005034562</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -644,36 +680,42 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07163550375636873</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06973392508772136</v>
+        <v>0.275342396225625</v>
       </c>
       <c r="M7">
-        <v>0.4445595609654518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.8372942874242</v>
+      </c>
+      <c r="O7">
+        <v>1.110247102368902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.515488928670266</v>
+        <v>3.830172352645945</v>
       </c>
       <c r="C8">
-        <v>0.5098294635760112</v>
+        <v>0.550137317392057</v>
       </c>
       <c r="D8">
-        <v>0.2187488477284489</v>
+        <v>0.02393552727011805</v>
       </c>
       <c r="E8">
-        <v>0.02443379291718983</v>
+        <v>0.02733433268974483</v>
       </c>
       <c r="F8">
-        <v>6.30184127599</v>
+        <v>1.604106126919291</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -685,36 +727,42 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08152357909246533</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08430914013861823</v>
+        <v>0.3290281280709593</v>
       </c>
       <c r="M8">
-        <v>0.5448875693523689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.7683490046744836</v>
+      </c>
+      <c r="O8">
+        <v>1.259186582273045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.505609463704729</v>
+        <v>5.200641454196841</v>
       </c>
       <c r="C9">
-        <v>0.7175217628351618</v>
+        <v>0.7369403726104053</v>
       </c>
       <c r="D9">
-        <v>0.2884629933933525</v>
+        <v>0.01962493738486515</v>
       </c>
       <c r="E9">
-        <v>0.02859790098134063</v>
+        <v>0.02785438322732681</v>
       </c>
       <c r="F9">
-        <v>8.350032712022909</v>
+        <v>2.039865659492705</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -726,36 +774,42 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1022580922436056</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1150207245396402</v>
+        <v>0.4391893108967935</v>
       </c>
       <c r="M9">
-        <v>0.755580856801636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.6467593393591322</v>
+      </c>
+      <c r="O9">
+        <v>1.580454391303903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.292978389632594</v>
+        <v>6.248228848447866</v>
       </c>
       <c r="C10">
-        <v>0.8834570807530895</v>
+        <v>0.8783094995395118</v>
       </c>
       <c r="D10">
-        <v>0.3438058401116422</v>
+        <v>0.01684005857120674</v>
       </c>
       <c r="E10">
-        <v>0.03194993001614677</v>
+        <v>0.02848235422252543</v>
       </c>
       <c r="F10">
-        <v>9.97298515089571</v>
+        <v>2.389239192573669</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -767,36 +821,42 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1187482575183338</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1395163292358248</v>
+        <v>0.5242808978205318</v>
       </c>
       <c r="M10">
-        <v>0.923272505346624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.5671219086764339</v>
+      </c>
+      <c r="O10">
+        <v>1.840231153067407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.670057641705284</v>
+        <v>6.736902573352324</v>
       </c>
       <c r="C11">
-        <v>0.9632677840613439</v>
+        <v>0.9439384430198743</v>
       </c>
       <c r="D11">
-        <v>0.3703040322131272</v>
+        <v>0.01567486877297064</v>
       </c>
       <c r="E11">
-        <v>0.03356303870208244</v>
+        <v>0.02883031536391378</v>
       </c>
       <c r="F11">
-        <v>10.74846478949723</v>
+        <v>2.556431659759539</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -808,36 +868,42 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1266453310291524</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1512574523384771</v>
+        <v>0.564196106804701</v>
       </c>
       <c r="M11">
-        <v>1.003598630125843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.5333586898375984</v>
+      </c>
+      <c r="O11">
+        <v>1.965094818961418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.816183205443394</v>
+        <v>6.924005662681736</v>
       </c>
       <c r="C12">
-        <v>0.9942634259981844</v>
+        <v>0.9690206865438142</v>
       </c>
       <c r="D12">
-        <v>0.3805729365875266</v>
+        <v>0.0152501480544398</v>
       </c>
       <c r="E12">
-        <v>0.03418914179828114</v>
+        <v>0.02897188347748525</v>
       </c>
       <c r="F12">
-        <v>11.04866743365966</v>
+        <v>2.621114426947855</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -849,36 +915,42 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1297054176967443</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1558081028369216</v>
+        <v>0.5795133845663116</v>
       </c>
       <c r="M12">
-        <v>1.034727354320246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.5209629710659129</v>
+      </c>
+      <c r="O12">
+        <v>2.013486653047039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.784552942524613</v>
+        <v>6.883612984607623</v>
       </c>
       <c r="C13">
-        <v>0.9875508094198153</v>
+        <v>0.9636078473705822</v>
       </c>
       <c r="D13">
-        <v>0.3783501009400112</v>
+        <v>0.0153408514913167</v>
       </c>
       <c r="E13">
-        <v>0.0340535743012591</v>
+        <v>0.02894094370638101</v>
       </c>
       <c r="F13">
-        <v>10.98370055297181</v>
+        <v>2.607119708368032</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -890,36 +962,42 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1290430444853641</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1548230517808413</v>
+        <v>0.5762050415752213</v>
       </c>
       <c r="M13">
-        <v>1.027989242917506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.5236146664608938</v>
+      </c>
+      <c r="O13">
+        <v>2.003012752089845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.682008666078616</v>
+        <v>6.752252592051548</v>
       </c>
       <c r="C14">
-        <v>0.965801335970383</v>
+        <v>0.9459971147167323</v>
       </c>
       <c r="D14">
-        <v>0.3711438712158213</v>
+        <v>0.01563958390342357</v>
       </c>
       <c r="E14">
-        <v>0.03361422628972655</v>
+        <v>0.02884176058808485</v>
       </c>
       <c r="F14">
-        <v>10.77302371502111</v>
+        <v>2.561724548282996</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -931,36 +1009,42 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1268956080974206</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1516296217613551</v>
+        <v>0.5654520370421778</v>
       </c>
       <c r="M14">
-        <v>1.00614451900578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.5323308576529442</v>
+      </c>
+      <c r="O14">
+        <v>1.969052915251254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.619652009344861</v>
+        <v>6.672067805188135</v>
       </c>
       <c r="C15">
-        <v>0.9525848806648298</v>
+        <v>0.9352412720945722</v>
       </c>
       <c r="D15">
-        <v>0.3667618781855424</v>
+        <v>0.01582477773779978</v>
       </c>
       <c r="E15">
-        <v>0.03334718451896101</v>
+        <v>0.02878231150317134</v>
       </c>
       <c r="F15">
-        <v>10.64487021800579</v>
+        <v>2.534103027993439</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -972,36 +1056,42 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1255897332142695</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1496877845552547</v>
+        <v>0.5588927671672081</v>
       </c>
       <c r="M15">
-        <v>0.9928608983969909</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.5377216527770372</v>
+      </c>
+      <c r="O15">
+        <v>1.948400600125922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.268765490832095</v>
+        <v>6.216562372499197</v>
       </c>
       <c r="C16">
-        <v>0.8783404897349669</v>
+        <v>0.874050362892774</v>
       </c>
       <c r="D16">
-        <v>0.3421043284466947</v>
+        <v>0.01691840722879689</v>
       </c>
       <c r="E16">
-        <v>0.03184649298053266</v>
+        <v>0.02846093760705593</v>
       </c>
       <c r="F16">
-        <v>9.923151032926967</v>
+        <v>2.378494085228908</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1013,36 +1103,42 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1182411579352021</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1387625533806869</v>
+        <v>0.5216989999033501</v>
       </c>
       <c r="M16">
-        <v>0.9181148323001551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.5693809164540866</v>
+      </c>
+      <c r="O16">
+        <v>1.832217744537445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.058748638639543</v>
+        <v>5.940437311026187</v>
       </c>
       <c r="C17">
-        <v>0.8339995556990516</v>
+        <v>0.836876639866091</v>
       </c>
       <c r="D17">
-        <v>0.3273453254275722</v>
+        <v>0.01761660724545067</v>
       </c>
       <c r="E17">
-        <v>0.03095013911991984</v>
+        <v>0.02828031026937694</v>
       </c>
       <c r="F17">
-        <v>9.490704057986505</v>
+        <v>2.285271569774309</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1054,36 +1150,42 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1138426648748734</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1322254945524577</v>
+        <v>0.4992102019659939</v>
       </c>
       <c r="M17">
-        <v>0.8733800882070923</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.5894577147515356</v>
+      </c>
+      <c r="O17">
+        <v>1.762755281200015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.939688122435257</v>
+        <v>5.782737610399181</v>
       </c>
       <c r="C18">
-        <v>0.8088922899620457</v>
+        <v>0.8156167810707018</v>
       </c>
       <c r="D18">
-        <v>0.3189776861177478</v>
+        <v>0.01802763319665068</v>
       </c>
       <c r="E18">
-        <v>0.03044270692425499</v>
+        <v>0.02818222544266646</v>
       </c>
       <c r="F18">
-        <v>9.245388395859834</v>
+        <v>2.232417744825312</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1095,36 +1197,42 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1113491094400523</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1285205279439943</v>
+        <v>0.4863868910644413</v>
       </c>
       <c r="M18">
-        <v>0.8480211929387522</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.6012349360074865</v>
+      </c>
+      <c r="O18">
+        <v>1.723422169047495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.899657616926163</v>
+        <v>5.729526777073488</v>
       </c>
       <c r="C19">
-        <v>0.8004554049184094</v>
+        <v>0.8084382827564696</v>
       </c>
       <c r="D19">
-        <v>0.3161641770282415</v>
+        <v>0.01816836791757304</v>
       </c>
       <c r="E19">
-        <v>0.03027222491371795</v>
+        <v>0.02814998887204645</v>
       </c>
       <c r="F19">
-        <v>9.16288281407185</v>
+        <v>2.214648597821437</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1136,36 +1244,42 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1105107281330824</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1272750259809214</v>
+        <v>0.4820634969724296</v>
       </c>
       <c r="M19">
-        <v>0.8394953547129447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.6052609285464179</v>
+      </c>
+      <c r="O19">
+        <v>1.710206949664268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.080921601291891</v>
+        <v>5.969713246589663</v>
       </c>
       <c r="C20">
-        <v>0.8386776994219076</v>
+        <v>0.8408209985531698</v>
       </c>
       <c r="D20">
-        <v>0.3289035938236822</v>
+        <v>0.0175412929204235</v>
       </c>
       <c r="E20">
-        <v>0.03104469947724731</v>
+        <v>0.02829893152915197</v>
       </c>
       <c r="F20">
-        <v>9.53637727801825</v>
+        <v>2.29511481097235</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1177,36 +1291,42 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1143070465126463</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1329155631441097</v>
+        <v>0.5015924207932159</v>
       </c>
       <c r="M20">
-        <v>0.8781028897536842</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.5872965036154021</v>
+      </c>
+      <c r="O20">
+        <v>1.770084523691494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.712032361411616</v>
+        <v>6.790777934002392</v>
       </c>
       <c r="C21">
-        <v>0.9721673321478193</v>
+        <v>0.951163223700604</v>
       </c>
       <c r="D21">
-        <v>0.3732537474992341</v>
+        <v>0.0155513742396991</v>
       </c>
       <c r="E21">
-        <v>0.03374283638961906</v>
+        <v>0.02887061978297822</v>
       </c>
       <c r="F21">
-        <v>10.83471618713065</v>
+        <v>2.575019433119763</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1218,36 +1338,42 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.127524357510147</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1525646051069494</v>
+        <v>0.5686047183801861</v>
       </c>
       <c r="M21">
-        <v>1.012540377847799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.5297598202117726</v>
+      </c>
+      <c r="O21">
+        <v>1.978996387716222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.14432039847577</v>
+        <v>7.339531875017485</v>
       </c>
       <c r="C22">
-        <v>1.06401280744214</v>
+        <v>1.024641634760883</v>
       </c>
       <c r="D22">
-        <v>0.4036345405825728</v>
+        <v>0.01434819802695309</v>
       </c>
       <c r="E22">
-        <v>0.03559673933575169</v>
+        <v>0.02930185869482393</v>
       </c>
       <c r="F22">
-        <v>11.72215645999307</v>
+        <v>2.766045192198249</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1259,36 +1385,42 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.136576507373789</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1660273708632189</v>
+        <v>0.6135961670120622</v>
       </c>
       <c r="M22">
-        <v>1.104628726039422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.4944475732687508</v>
+      </c>
+      <c r="O22">
+        <v>2.122077297183012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.91154668656867</v>
+        <v>7.045427303024439</v>
       </c>
       <c r="C23">
-        <v>1.01451287031324</v>
+        <v>0.9852852825537184</v>
       </c>
       <c r="D23">
-        <v>0.3872748012237395</v>
+        <v>0.01498074034585706</v>
       </c>
       <c r="E23">
-        <v>0.03459800089169818</v>
+        <v>0.02906612037767786</v>
       </c>
       <c r="F23">
-        <v>11.24448918037541</v>
+        <v>2.66328386823136</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1300,36 +1432,42 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1317023925186582</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1587780189740364</v>
+        <v>0.5894635365076795</v>
       </c>
       <c r="M23">
-        <v>1.055042347355716</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.5130717850687176</v>
+      </c>
+      <c r="O23">
+        <v>2.04505975308858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.070892013751688</v>
+        <v>5.956474353877809</v>
       </c>
       <c r="C24">
-        <v>0.8365615226252885</v>
+        <v>0.839037408697493</v>
       </c>
       <c r="D24">
-        <v>0.32819873790055</v>
+        <v>0.01757531269717205</v>
       </c>
       <c r="E24">
-        <v>0.03100192433930005</v>
+        <v>0.0282904949783056</v>
       </c>
       <c r="F24">
-        <v>9.515718211499461</v>
+        <v>2.290662386951126</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1341,36 +1479,42 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1140969908707774</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1326034185412119</v>
+        <v>0.5005150922461752</v>
       </c>
       <c r="M24">
-        <v>0.8759666001933297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.5882728584249932</v>
+      </c>
+      <c r="O24">
+        <v>1.766769109576288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.22894714616325</v>
+        <v>4.82374851060348</v>
       </c>
       <c r="C25">
-        <v>0.6594059764730673</v>
+        <v>0.6858097660523015</v>
       </c>
       <c r="D25">
-        <v>0.2690041171082669</v>
+        <v>0.02072960494840181</v>
       </c>
       <c r="E25">
-        <v>0.02742723902975541</v>
+        <v>0.0276732684833032</v>
       </c>
       <c r="F25">
-        <v>7.778570825975152</v>
+        <v>1.917436879513744</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09646413752696148</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1064253501741987</v>
+        <v>0.4087510774382821</v>
       </c>
       <c r="M25">
-        <v>0.6966804724456566</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.6780609880946074</v>
+      </c>
+      <c r="O25">
+        <v>1.48984404559836</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.015866435758426</v>
+        <v>4.41738395684331</v>
       </c>
       <c r="C2">
-        <v>0.5756047485130011</v>
+        <v>1.879492628435287</v>
       </c>
       <c r="D2">
-        <v>0.02330155442173343</v>
+        <v>0.01477443718036398</v>
       </c>
       <c r="E2">
-        <v>0.02738062657657547</v>
+        <v>1.49631300949153</v>
       </c>
       <c r="F2">
-        <v>1.661546691615854</v>
+        <v>2.094272068126415</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8364637234534413</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3438654086110802</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7505431414424173</v>
+        <v>0.4631294545099394</v>
       </c>
       <c r="O2">
-        <v>1.301319786982035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.480477267725689</v>
+        <v>3.795988648380899</v>
       </c>
       <c r="C3">
-        <v>0.502013595870352</v>
+        <v>1.610712836497953</v>
       </c>
       <c r="D3">
-        <v>0.02517737710891765</v>
+        <v>0.01412274801977276</v>
       </c>
       <c r="E3">
-        <v>0.02727171841762299</v>
+        <v>1.272039294440191</v>
       </c>
       <c r="F3">
-        <v>1.497481113504776</v>
+        <v>1.823928079507183</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.7455226647765016</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3011745758114444</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8031817235190069</v>
+        <v>0.5084800860243917</v>
       </c>
       <c r="O3">
-        <v>1.181188932680087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.156516537435493</v>
+        <v>3.421683809923707</v>
       </c>
       <c r="C4">
-        <v>0.4572151118869954</v>
+        <v>1.449419207805306</v>
       </c>
       <c r="D4">
-        <v>0.02638825826430669</v>
+        <v>0.01388141281148947</v>
       </c>
       <c r="E4">
-        <v>0.02724558549820788</v>
+        <v>1.139026430524453</v>
       </c>
       <c r="F4">
-        <v>1.400650675136347</v>
+        <v>1.664673466798604</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.69288424274486</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2754824837440992</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8371042025093729</v>
+        <v>0.5380261288578261</v>
       </c>
       <c r="O4">
-        <v>1.110627921832062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.025537596035633</v>
+        <v>3.270663032415655</v>
       </c>
       <c r="C5">
-        <v>0.4390361128247662</v>
+        <v>1.384470553418794</v>
       </c>
       <c r="D5">
-        <v>0.02689571614605413</v>
+        <v>0.01381769665428934</v>
       </c>
       <c r="E5">
-        <v>0.02724472087093144</v>
+        <v>1.085798420844938</v>
       </c>
       <c r="F5">
-        <v>1.362078356299108</v>
+        <v>1.601242043763676</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6721385433983329</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2651284464841126</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8513126332120358</v>
+        <v>0.5504632661883981</v>
       </c>
       <c r="O5">
-        <v>1.082602022900815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.003846832895647</v>
+        <v>3.245669122381287</v>
       </c>
       <c r="C6">
-        <v>0.4360215723293663</v>
+        <v>1.373728658420134</v>
       </c>
       <c r="D6">
-        <v>0.02698080229688671</v>
+        <v>0.01380906693647788</v>
       </c>
       <c r="E6">
-        <v>0.02724515550547402</v>
+        <v>1.077013445350502</v>
       </c>
       <c r="F6">
-        <v>1.35572437106616</v>
+        <v>1.590791686505142</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6687336125262249</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2634157351568263</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8536946680683641</v>
+        <v>0.5525515836607369</v>
       </c>
       <c r="O6">
-        <v>1.077990214992525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.154746112464011</v>
+        <v>3.419641351391817</v>
       </c>
       <c r="C7">
-        <v>0.456969658656476</v>
+        <v>1.448540327794205</v>
       </c>
       <c r="D7">
-        <v>0.02639504633867684</v>
+        <v>0.01388041977400079</v>
       </c>
       <c r="E7">
-        <v>0.02724553480084424</v>
+        <v>1.138304877395271</v>
       </c>
       <c r="F7">
-        <v>1.400127005034562</v>
+        <v>1.663812354321564</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6926017282862063</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.275342396225625</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8372942874242</v>
+        <v>0.5381922914570616</v>
       </c>
       <c r="O7">
-        <v>1.110247102368902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.830172352645945</v>
+        <v>4.201428058517706</v>
       </c>
       <c r="C8">
-        <v>0.550137317392057</v>
+        <v>1.785938557778024</v>
       </c>
       <c r="D8">
-        <v>0.02393552727011805</v>
+        <v>0.01451333810029354</v>
       </c>
       <c r="E8">
-        <v>0.02733433268974483</v>
+        <v>1.417877381015074</v>
       </c>
       <c r="F8">
-        <v>1.604106126919291</v>
+        <v>1.999512855749515</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.8043792412342938</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3290281280709593</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7683490046744836</v>
+        <v>0.4783937106510443</v>
       </c>
       <c r="O8">
-        <v>1.259186582273045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.200641454196841</v>
+        <v>5.808126414425374</v>
       </c>
       <c r="C9">
-        <v>0.7369403726104053</v>
+        <v>2.485718847995827</v>
       </c>
       <c r="D9">
-        <v>0.01962493738486515</v>
+        <v>0.01730136807783822</v>
       </c>
       <c r="E9">
-        <v>0.02785438322732681</v>
+        <v>2.014393196122839</v>
       </c>
       <c r="F9">
-        <v>2.039865659492705</v>
+        <v>2.723277225507303</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.054203518685767</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4391893108967935</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6467593393591322</v>
+        <v>0.3762317027079334</v>
       </c>
       <c r="O9">
-        <v>1.580454391303903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.248228848447866</v>
+        <v>7.060639951364919</v>
       </c>
       <c r="C10">
-        <v>0.8783094995395118</v>
+        <v>3.037414912429995</v>
       </c>
       <c r="D10">
-        <v>0.01684005857120674</v>
+        <v>0.02079044300156596</v>
       </c>
       <c r="E10">
-        <v>0.02848235422252543</v>
+        <v>2.501278336240503</v>
       </c>
       <c r="F10">
-        <v>2.389239192573669</v>
+        <v>3.31502079775882</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.265193338426414</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5242808978205318</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5671219086764339</v>
+        <v>0.3130665793633369</v>
       </c>
       <c r="O10">
-        <v>1.840231153067407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.736902573352324</v>
+        <v>7.653881943103784</v>
       </c>
       <c r="C11">
-        <v>0.9439384430198743</v>
+        <v>3.300693979501148</v>
       </c>
       <c r="D11">
-        <v>0.01567486877297064</v>
+        <v>0.022840376174738</v>
       </c>
       <c r="E11">
-        <v>0.02883031536391378</v>
+        <v>2.739125069439922</v>
       </c>
       <c r="F11">
-        <v>2.556431659759539</v>
+        <v>3.603006109277743</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.36965188622365</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.564196106804701</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5333586898375984</v>
+        <v>0.2876838599423905</v>
       </c>
       <c r="O11">
-        <v>1.965094818961418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.924005662681736</v>
+        <v>7.882733531335532</v>
       </c>
       <c r="C12">
-        <v>0.9690206865438142</v>
+        <v>3.402607073923491</v>
       </c>
       <c r="D12">
-        <v>0.0152501480544398</v>
+        <v>0.02369989611894496</v>
       </c>
       <c r="E12">
-        <v>0.02897188347748525</v>
+        <v>2.832192262767023</v>
       </c>
       <c r="F12">
-        <v>2.621114426947855</v>
+        <v>3.715377750069138</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.410695886053276</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5795133845663116</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5209629710659129</v>
+        <v>0.2786366691918261</v>
       </c>
       <c r="O12">
-        <v>2.013486653047039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.883612984607623</v>
+        <v>7.833243996120586</v>
       </c>
       <c r="C13">
-        <v>0.9636078473705822</v>
+        <v>3.380551511498595</v>
       </c>
       <c r="D13">
-        <v>0.0153408514913167</v>
+        <v>0.0235107654646427</v>
       </c>
       <c r="E13">
-        <v>0.02894094370638101</v>
+        <v>2.812002924462135</v>
       </c>
       <c r="F13">
-        <v>2.607119708368032</v>
+        <v>3.691017608253304</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.401785200892959</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5762050415752213</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5236146664608938</v>
+        <v>0.2805585049178205</v>
       </c>
       <c r="O13">
-        <v>2.003012752089845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.752252592051548</v>
+        <v>7.672620015774896</v>
       </c>
       <c r="C14">
-        <v>0.9459971147167323</v>
+        <v>3.309031109815351</v>
       </c>
       <c r="D14">
-        <v>0.01563958390342357</v>
+        <v>0.02290930908172584</v>
       </c>
       <c r="E14">
-        <v>0.02884176058808485</v>
+        <v>2.746717301233531</v>
       </c>
       <c r="F14">
-        <v>2.561724548282996</v>
+        <v>3.612180466398371</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.37299702112972</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5654520370421778</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5323308576529442</v>
+        <v>0.2869276829153762</v>
       </c>
       <c r="O14">
-        <v>1.969052915251254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.672067805188135</v>
+        <v>7.574808496928483</v>
       </c>
       <c r="C15">
-        <v>0.9352412720945722</v>
+        <v>3.265526264126095</v>
       </c>
       <c r="D15">
-        <v>0.01582477773779978</v>
+        <v>0.02255231369926136</v>
       </c>
       <c r="E15">
-        <v>0.02878231150317134</v>
+        <v>2.707140839581342</v>
       </c>
       <c r="F15">
-        <v>2.534103027993439</v>
+        <v>3.564343177885604</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.35556621452946</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5588927671672081</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5377216527770372</v>
+        <v>0.2909053054538404</v>
       </c>
       <c r="O15">
-        <v>1.948400600125922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.216562372499197</v>
+        <v>7.022409130554024</v>
       </c>
       <c r="C16">
-        <v>0.874050362892774</v>
+        <v>3.020492438420945</v>
       </c>
       <c r="D16">
-        <v>0.01691840722879689</v>
+        <v>0.02066711857395376</v>
       </c>
       <c r="E16">
-        <v>0.02846093760705593</v>
+        <v>2.486115209478797</v>
       </c>
       <c r="F16">
-        <v>2.378494085228908</v>
+        <v>3.296628006511384</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.258558946271037</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5216989999033501</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5693809164540866</v>
+        <v>0.3147995026564203</v>
       </c>
       <c r="O16">
-        <v>1.832217744537445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.940437311026187</v>
+        <v>6.690074722736142</v>
       </c>
       <c r="C17">
-        <v>0.836876639866091</v>
+        <v>2.873610654818947</v>
       </c>
       <c r="D17">
-        <v>0.01761660724545067</v>
+        <v>0.01963973060779622</v>
       </c>
       <c r="E17">
-        <v>0.02828031026937694</v>
+        <v>2.355122914123172</v>
       </c>
       <c r="F17">
-        <v>2.285271569774309</v>
+        <v>3.137604072041228</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.201392672364562</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4992102019659939</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5894577147515356</v>
+        <v>0.3303695715508823</v>
       </c>
       <c r="O17">
-        <v>1.762755281200015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.782737610399181</v>
+        <v>6.5010746138272</v>
       </c>
       <c r="C18">
-        <v>0.8156167810707018</v>
+        <v>2.790254994602037</v>
       </c>
       <c r="D18">
-        <v>0.01802763319665068</v>
+        <v>0.01909114456856997</v>
       </c>
       <c r="E18">
-        <v>0.02818222544266646</v>
+        <v>2.281272369502034</v>
       </c>
       <c r="F18">
-        <v>2.232417744825312</v>
+        <v>3.047863341462545</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.169291035286321</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4863868910644413</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6012349360074865</v>
+        <v>0.3396346317924497</v>
       </c>
       <c r="O18">
-        <v>1.723422169047495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.729526777073488</v>
+        <v>6.437429306871422</v>
       </c>
       <c r="C19">
-        <v>0.8084382827564696</v>
+        <v>2.762213790877752</v>
       </c>
       <c r="D19">
-        <v>0.01816836791757304</v>
+        <v>0.01891223284254551</v>
       </c>
       <c r="E19">
-        <v>0.02814998887204645</v>
+        <v>2.256507165234098</v>
       </c>
       <c r="F19">
-        <v>2.214648597821437</v>
+        <v>3.017758477882126</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.15854850466549</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4820634969724296</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6052609285464179</v>
+        <v>0.3428225561285316</v>
       </c>
       <c r="O19">
-        <v>1.710206949664268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.969713246589663</v>
+        <v>6.725224362624317</v>
       </c>
       <c r="C20">
-        <v>0.8408209985531698</v>
+        <v>2.889126945643625</v>
       </c>
       <c r="D20">
-        <v>0.0175412929204235</v>
+        <v>0.01974460820314761</v>
       </c>
       <c r="E20">
-        <v>0.02829893152915197</v>
+        <v>2.368908618963957</v>
       </c>
       <c r="F20">
-        <v>2.29511481097235</v>
+        <v>3.154349824642708</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.207395750300051</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5015924207932159</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5872965036154021</v>
+        <v>0.3286795300023755</v>
       </c>
       <c r="O20">
-        <v>1.770084523691494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.790777934002392</v>
+        <v>7.719677518516619</v>
       </c>
       <c r="C21">
-        <v>0.951163223700604</v>
+        <v>3.32997419400931</v>
       </c>
       <c r="D21">
-        <v>0.0155513742396991</v>
+        <v>0.02308355633466164</v>
       </c>
       <c r="E21">
-        <v>0.02887061978297822</v>
+        <v>2.765805814711598</v>
       </c>
       <c r="F21">
-        <v>2.575019433119763</v>
+        <v>3.635241190738782</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.381409976744422</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5686047183801861</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5297598202117726</v>
+        <v>0.2850408211454081</v>
       </c>
       <c r="O21">
-        <v>1.978996387716222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.339531875017485</v>
+        <v>8.394648816563461</v>
       </c>
       <c r="C22">
-        <v>1.024641634760883</v>
+        <v>3.631294682551982</v>
       </c>
       <c r="D22">
-        <v>0.01434819802695309</v>
+        <v>0.02576234184930115</v>
       </c>
       <c r="E22">
-        <v>0.02930185869482393</v>
+        <v>3.043127989565249</v>
       </c>
       <c r="F22">
-        <v>2.766045192198249</v>
+        <v>3.969268064224735</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.503984222551537</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6135961670120622</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4944475732687508</v>
+        <v>0.2598651992991705</v>
       </c>
       <c r="O22">
-        <v>2.122077297183012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.045427303024439</v>
+        <v>8.031785501676268</v>
       </c>
       <c r="C23">
-        <v>0.9852852825537184</v>
+        <v>3.469089716532949</v>
       </c>
       <c r="D23">
-        <v>0.01498074034585706</v>
+        <v>0.02428040950909249</v>
       </c>
       <c r="E23">
-        <v>0.02906612037767786</v>
+        <v>2.89321202166326</v>
       </c>
       <c r="F23">
-        <v>2.66328386823136</v>
+        <v>3.788942996706254</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.437648548815133</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5894635365076795</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5130717850687176</v>
+        <v>0.2729632391786581</v>
       </c>
       <c r="O23">
-        <v>2.04505975308858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.956474353877809</v>
+        <v>6.709326843455301</v>
       </c>
       <c r="C24">
-        <v>0.839037408697493</v>
+        <v>2.882108671830281</v>
       </c>
       <c r="D24">
-        <v>0.01757531269717205</v>
+        <v>0.01969706319318121</v>
       </c>
       <c r="E24">
-        <v>0.0282904949783056</v>
+        <v>2.362671604732398</v>
       </c>
       <c r="F24">
-        <v>2.290662386951126</v>
+        <v>3.146773868285749</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.204679398455426</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5005150922461752</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5882728584249932</v>
+        <v>0.3294426269185777</v>
       </c>
       <c r="O24">
-        <v>1.766769109576288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.82374851060348</v>
+        <v>5.363072340421809</v>
       </c>
       <c r="C25">
-        <v>0.6858097660523015</v>
+        <v>2.291005843558139</v>
       </c>
       <c r="D25">
-        <v>0.02072960494840181</v>
+        <v>0.01633640069224995</v>
       </c>
       <c r="E25">
-        <v>0.0276732684833032</v>
+        <v>1.846111455660449</v>
       </c>
       <c r="F25">
-        <v>1.917436879513744</v>
+        <v>2.518612197933976</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.9825283241367657</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4087510774382821</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6780609880946074</v>
+        <v>0.4020038869162548</v>
       </c>
       <c r="O25">
-        <v>1.48984404559836</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.41738395684331</v>
+        <v>1.43180100408847</v>
       </c>
       <c r="C2">
-        <v>1.879492628435287</v>
+        <v>0.5561946450787332</v>
       </c>
       <c r="D2">
-        <v>0.01477443718036398</v>
+        <v>0.01898470219389026</v>
       </c>
       <c r="E2">
-        <v>1.49631300949153</v>
+        <v>0.418868025178611</v>
       </c>
       <c r="F2">
-        <v>2.094272068126415</v>
+        <v>1.22420842577543</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8364637234534413</v>
+        <v>0.6851918156816694</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4631294545099394</v>
+        <v>0.9873592261007289</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.795988648380899</v>
+        <v>1.270843218843311</v>
       </c>
       <c r="C3">
-        <v>1.610712836497953</v>
+        <v>0.4868603933235249</v>
       </c>
       <c r="D3">
-        <v>0.01412274801977276</v>
+        <v>0.01914739503100904</v>
       </c>
       <c r="E3">
-        <v>1.272039294440191</v>
+        <v>0.3649584804624908</v>
       </c>
       <c r="F3">
-        <v>1.823928079507183</v>
+        <v>1.168444706594499</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7455226647765016</v>
+        <v>0.6700495542047094</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5084800860243917</v>
+        <v>1.003888397040395</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.421683809923707</v>
+        <v>1.172501167612211</v>
       </c>
       <c r="C4">
-        <v>1.449419207805306</v>
+        <v>0.4444327630589555</v>
       </c>
       <c r="D4">
-        <v>0.01388141281148947</v>
+        <v>0.01926975491615224</v>
       </c>
       <c r="E4">
-        <v>1.139026430524453</v>
+        <v>0.3320111203335046</v>
       </c>
       <c r="F4">
-        <v>1.664673466798604</v>
+        <v>1.135248235746545</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.69288424274486</v>
+        <v>0.6613475268064306</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5380261288578261</v>
+        <v>1.014555381492585</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.270663032415655</v>
+        <v>1.132544577260489</v>
       </c>
       <c r="C5">
-        <v>1.384470553418794</v>
+        <v>0.4271769619589918</v>
       </c>
       <c r="D5">
-        <v>0.01381769665428934</v>
+        <v>0.0193251675234194</v>
       </c>
       <c r="E5">
-        <v>1.085798420844938</v>
+        <v>0.3186199087233206</v>
       </c>
       <c r="F5">
-        <v>1.601242043763676</v>
+        <v>1.121978765897921</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6721385433983329</v>
+        <v>0.6579493326846304</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5504632661883981</v>
+        <v>1.01903186804314</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.245669122381287</v>
+        <v>1.125916869622642</v>
       </c>
       <c r="C6">
-        <v>1.373728658420134</v>
+        <v>0.4243136222090698</v>
       </c>
       <c r="D6">
-        <v>0.01380906693647788</v>
+        <v>0.01933470107326229</v>
       </c>
       <c r="E6">
-        <v>1.077013445350502</v>
+        <v>0.3163983286809184</v>
       </c>
       <c r="F6">
-        <v>1.590791686505142</v>
+        <v>1.119790873934249</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6687336125262249</v>
+        <v>0.6573939500089239</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5525515836607369</v>
+        <v>1.019782994033985</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.419641351391817</v>
+        <v>1.171961823827075</v>
       </c>
       <c r="C7">
-        <v>1.448540327794205</v>
+        <v>0.4441999115416593</v>
       </c>
       <c r="D7">
-        <v>0.01388041977400079</v>
+        <v>0.01927047988786512</v>
       </c>
       <c r="E7">
-        <v>1.138304877395271</v>
+        <v>0.331830384154614</v>
       </c>
       <c r="F7">
-        <v>1.663812354321564</v>
+        <v>1.135068237959004</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6926017282862063</v>
+        <v>0.661301100826023</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5381922914570616</v>
+        <v>1.014615229045823</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.201428058517706</v>
+        <v>1.376199399961763</v>
       </c>
       <c r="C8">
-        <v>1.785938557778024</v>
+        <v>0.5322568711487179</v>
       </c>
       <c r="D8">
-        <v>0.01451333810029354</v>
+        <v>0.01903607571363963</v>
       </c>
       <c r="E8">
-        <v>1.417877381015074</v>
+        <v>0.4002460886429873</v>
       </c>
       <c r="F8">
-        <v>1.999512855749515</v>
+        <v>1.204762350224854</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8043792412342938</v>
+        <v>0.6798461201412564</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4783937106510443</v>
+        <v>0.9929505784159041</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.808126414425374</v>
+        <v>1.780764153406892</v>
       </c>
       <c r="C9">
-        <v>2.485718847995827</v>
+        <v>0.7061947151043455</v>
       </c>
       <c r="D9">
-        <v>0.01730136807783822</v>
+        <v>0.01875920105149831</v>
       </c>
       <c r="E9">
-        <v>2.014393196122839</v>
+        <v>0.535788821193421</v>
       </c>
       <c r="F9">
-        <v>2.723277225507303</v>
+        <v>1.349887909244501</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.054203518685767</v>
+        <v>0.7210197532924383</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3762317027079334</v>
+        <v>0.9546052659177207</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.060639951364919</v>
+        <v>2.08077230338705</v>
       </c>
       <c r="C10">
-        <v>3.037414912429995</v>
+        <v>0.8349296160035919</v>
       </c>
       <c r="D10">
-        <v>0.02079044300156596</v>
+        <v>0.01867358378142114</v>
       </c>
       <c r="E10">
-        <v>2.501278336240503</v>
+        <v>0.636450542645548</v>
       </c>
       <c r="F10">
-        <v>3.31502079775882</v>
+        <v>1.461933247349464</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.265193338426414</v>
+        <v>0.7543200522087972</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3130665793633369</v>
+        <v>0.9289952987538861</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.653881943103784</v>
+        <v>2.217924869523586</v>
       </c>
       <c r="C11">
-        <v>3.300693979501148</v>
+        <v>0.8937386091240569</v>
       </c>
       <c r="D11">
-        <v>0.022840376174738</v>
+        <v>0.01866162578351194</v>
       </c>
       <c r="E11">
-        <v>2.739125069439922</v>
+        <v>0.6825312684266436</v>
       </c>
       <c r="F11">
-        <v>3.603006109277743</v>
+        <v>1.514142216851695</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.36965188622365</v>
+        <v>0.7701580401969039</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2876838599423905</v>
+        <v>0.9179096619487979</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.882733531335532</v>
+        <v>2.269963472863196</v>
       </c>
       <c r="C12">
-        <v>3.402607073923491</v>
+        <v>0.9160465645317117</v>
       </c>
       <c r="D12">
-        <v>0.02369989611894496</v>
+        <v>0.0186610976509769</v>
       </c>
       <c r="E12">
-        <v>2.832192262767023</v>
+        <v>0.7000266628881207</v>
       </c>
       <c r="F12">
-        <v>3.715377750069138</v>
+        <v>1.534095255452371</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.410695886053276</v>
+        <v>0.7762567557253419</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2786366691918261</v>
+        <v>0.9137937574140693</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.833243996120586</v>
+        <v>2.2587514234379</v>
       </c>
       <c r="C13">
-        <v>3.380551511498595</v>
+        <v>0.9112404005356325</v>
       </c>
       <c r="D13">
-        <v>0.0235107654646427</v>
+        <v>0.0186610315642568</v>
       </c>
       <c r="E13">
-        <v>2.812002924462135</v>
+        <v>0.6962566223281641</v>
       </c>
       <c r="F13">
-        <v>3.691017608253304</v>
+        <v>1.529789816759688</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.401785200892959</v>
+        <v>0.7749387535038181</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2805585049178205</v>
+        <v>0.9146765315895671</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.672620015774896</v>
+        <v>2.2222040482431</v>
       </c>
       <c r="C14">
-        <v>3.309031109815351</v>
+        <v>0.8955731150404063</v>
       </c>
       <c r="D14">
-        <v>0.02290930908172584</v>
+        <v>0.01866150147474244</v>
       </c>
       <c r="E14">
-        <v>2.746717301233531</v>
+        <v>0.6839696872497427</v>
       </c>
       <c r="F14">
-        <v>3.612180466398371</v>
+        <v>1.515780079165381</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.37299702112972</v>
+        <v>0.7706577447913077</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2869276829153762</v>
+        <v>0.9175693961619196</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.574808496928483</v>
+        <v>2.199831132061433</v>
       </c>
       <c r="C15">
-        <v>3.265526264126095</v>
+        <v>0.8859815169456056</v>
       </c>
       <c r="D15">
-        <v>0.02255231369926136</v>
+        <v>0.01866231381580974</v>
       </c>
       <c r="E15">
-        <v>2.707140839581342</v>
+        <v>0.6764496476126993</v>
       </c>
       <c r="F15">
-        <v>3.564343177885604</v>
+        <v>1.507222628932141</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.35556621452946</v>
+        <v>0.7680487461037444</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.2909053054538404</v>
+        <v>0.9193520606761254</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.022409130554024</v>
+        <v>2.071823072738027</v>
       </c>
       <c r="C16">
-        <v>3.020492438420945</v>
+        <v>0.8310915125155702</v>
       </c>
       <c r="D16">
-        <v>0.02066711857395376</v>
+        <v>0.01867491848107505</v>
       </c>
       <c r="E16">
-        <v>2.486115209478797</v>
+        <v>0.633445221417773</v>
       </c>
       <c r="F16">
-        <v>3.296628006511384</v>
+        <v>1.458546580191637</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.258558946271037</v>
+        <v>0.7532990526687229</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3147995026564203</v>
+        <v>0.929731199063383</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.690074722736142</v>
+        <v>1.993470925925237</v>
       </c>
       <c r="C17">
-        <v>2.873610654818947</v>
+        <v>0.7974834466871812</v>
       </c>
       <c r="D17">
-        <v>0.01963973060779622</v>
+        <v>0.01868964761732528</v>
       </c>
       <c r="E17">
-        <v>2.355122914123172</v>
+        <v>0.6071403153444521</v>
       </c>
       <c r="F17">
-        <v>3.137604072041228</v>
+        <v>1.429005889067014</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.201392672364562</v>
+        <v>0.7444286503622948</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3303695715508823</v>
+        <v>0.9362436128909799</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.5010746138272</v>
+        <v>1.948468322837186</v>
       </c>
       <c r="C18">
-        <v>2.790254994602037</v>
+        <v>0.7781760405782165</v>
       </c>
       <c r="D18">
-        <v>0.01909114456856997</v>
+        <v>0.01870065255525333</v>
       </c>
       <c r="E18">
-        <v>2.281272369502034</v>
+        <v>0.592037403652057</v>
       </c>
       <c r="F18">
-        <v>3.047863341462545</v>
+        <v>1.412131211511991</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.169291035286321</v>
+        <v>0.7393914045231753</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3396346317924497</v>
+        <v>0.9400424614798908</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.437429306871422</v>
+        <v>1.933241982149468</v>
       </c>
       <c r="C19">
-        <v>2.762213790877752</v>
+        <v>0.7716427625505276</v>
       </c>
       <c r="D19">
-        <v>0.01891223284254551</v>
+        <v>0.01870481012150549</v>
       </c>
       <c r="E19">
-        <v>2.256507165234098</v>
+        <v>0.5869283286249072</v>
       </c>
       <c r="F19">
-        <v>3.017758477882126</v>
+        <v>1.40643758340525</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.15854850466549</v>
+        <v>0.737696942551608</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3428225561285316</v>
+        <v>0.9413377783360701</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.725224362624317</v>
+        <v>2.001805043607987</v>
       </c>
       <c r="C20">
-        <v>2.889126945643625</v>
+        <v>0.8010586757072247</v>
       </c>
       <c r="D20">
-        <v>0.01974460820314761</v>
+        <v>0.0186878166532054</v>
       </c>
       <c r="E20">
-        <v>2.368908618963957</v>
+        <v>0.6099376967771946</v>
       </c>
       <c r="F20">
-        <v>3.154349824642708</v>
+        <v>1.432138472512435</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.207395750300051</v>
+        <v>0.7453662010517519</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3286795300023755</v>
+        <v>0.935544855845535</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.719677518516619</v>
+        <v>2.232936096178037</v>
       </c>
       <c r="C21">
-        <v>3.32997419400931</v>
+        <v>0.9001739156577742</v>
       </c>
       <c r="D21">
-        <v>0.02308355633466164</v>
+        <v>0.01866125392796647</v>
       </c>
       <c r="E21">
-        <v>2.765805814711598</v>
+        <v>0.6875773871021522</v>
       </c>
       <c r="F21">
-        <v>3.635241190738782</v>
+        <v>1.519890085992898</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.381409976744422</v>
+        <v>0.7719124173112704</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2850408211454081</v>
+        <v>0.9167174600614842</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.394648816563461</v>
+        <v>2.38458974426311</v>
       </c>
       <c r="C22">
-        <v>3.631294682551982</v>
+        <v>0.9651758285419874</v>
       </c>
       <c r="D22">
-        <v>0.02576234184930115</v>
+        <v>0.01866726640396266</v>
       </c>
       <c r="E22">
-        <v>3.043127989565249</v>
+        <v>0.7385872800035287</v>
       </c>
       <c r="F22">
-        <v>3.969268064224735</v>
+        <v>1.578307509139734</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.503984222551537</v>
+        <v>0.7898528354055259</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2598651992991705</v>
+        <v>0.9048909335181037</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.031785501676268</v>
+        <v>2.303593272698947</v>
       </c>
       <c r="C23">
-        <v>3.469089716532949</v>
+        <v>0.9304616225160771</v>
       </c>
       <c r="D23">
-        <v>0.02428040950909249</v>
+        <v>0.01866187882006187</v>
       </c>
       <c r="E23">
-        <v>2.89321202166326</v>
+        <v>0.7113364733707357</v>
       </c>
       <c r="F23">
-        <v>3.788942996706254</v>
+        <v>1.547029931490101</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.437648548815133</v>
+        <v>0.7802229355520041</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2729632391786581</v>
+        <v>0.9111589380551806</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.709326843455301</v>
+        <v>1.998037055126417</v>
       </c>
       <c r="C24">
-        <v>2.882108671830281</v>
+        <v>0.7994422702759607</v>
       </c>
       <c r="D24">
-        <v>0.01969706319318121</v>
+        <v>0.01868863653876218</v>
       </c>
       <c r="E24">
-        <v>2.362671604732398</v>
+        <v>0.6086729382376603</v>
       </c>
       <c r="F24">
-        <v>3.146773868285749</v>
+        <v>1.430721893424504</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.204679398455426</v>
+        <v>0.7449421399710729</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3294426269185777</v>
+        <v>0.9358605933551623</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.363072340421809</v>
+        <v>1.670853665900438</v>
       </c>
       <c r="C25">
-        <v>2.291005843558139</v>
+        <v>0.6589872455524528</v>
       </c>
       <c r="D25">
-        <v>0.01633640069224995</v>
+        <v>0.01881388412277829</v>
       </c>
       <c r="E25">
-        <v>1.846111455660449</v>
+        <v>0.4989489557592321</v>
       </c>
       <c r="F25">
-        <v>2.518612197933976</v>
+        <v>1.309695057901877</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9825283241367657</v>
+        <v>0.7093543365496231</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4020038869162548</v>
+        <v>0.9645315964188583</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.43180100408847</v>
+        <v>4.417383956843253</v>
       </c>
       <c r="C2">
-        <v>0.5561946450787332</v>
+        <v>1.87949262843523</v>
       </c>
       <c r="D2">
-        <v>0.01898470219389026</v>
+        <v>0.01477443718025739</v>
       </c>
       <c r="E2">
-        <v>0.418868025178611</v>
+        <v>1.496313009491487</v>
       </c>
       <c r="F2">
-        <v>1.22420842577543</v>
+        <v>2.094272068126372</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6851918156816694</v>
+        <v>0.8364637234534413</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9873592261007289</v>
+        <v>0.4631294545099465</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.270843218843311</v>
+        <v>3.795988648381126</v>
       </c>
       <c r="C3">
-        <v>0.4868603933235249</v>
+        <v>1.610712836498237</v>
       </c>
       <c r="D3">
-        <v>0.01914739503100904</v>
+        <v>0.01412274801998947</v>
       </c>
       <c r="E3">
-        <v>0.3649584804624908</v>
+        <v>1.272039294440191</v>
       </c>
       <c r="F3">
-        <v>1.168444706594499</v>
+        <v>1.823928079507183</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6700495542047094</v>
+        <v>0.7455226647765016</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.003888397040395</v>
+        <v>0.5084800860244023</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.172501167612211</v>
+        <v>3.421683809923536</v>
       </c>
       <c r="C4">
-        <v>0.4444327630589555</v>
+        <v>1.449419207805136</v>
       </c>
       <c r="D4">
-        <v>0.01926975491615224</v>
+        <v>0.01388141281138999</v>
       </c>
       <c r="E4">
-        <v>0.3320111203335046</v>
+        <v>1.139026430524495</v>
       </c>
       <c r="F4">
-        <v>1.135248235746545</v>
+        <v>1.664673466798604</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6613475268064306</v>
+        <v>0.6928842427448672</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.014555381492585</v>
+        <v>0.5380261288578083</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.132544577260489</v>
+        <v>3.270663032415825</v>
       </c>
       <c r="C5">
-        <v>0.4271769619589918</v>
+        <v>1.384470553418737</v>
       </c>
       <c r="D5">
-        <v>0.0193251675234194</v>
+        <v>0.0138176966541792</v>
       </c>
       <c r="E5">
-        <v>0.3186199087233206</v>
+        <v>1.085798420844952</v>
       </c>
       <c r="F5">
-        <v>1.121978765897921</v>
+        <v>1.601242043763691</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6579493326846304</v>
+        <v>0.6721385433983329</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.01903186804314</v>
+        <v>0.5504632661884052</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.125916869622642</v>
+        <v>3.2456691223814</v>
       </c>
       <c r="C6">
-        <v>0.4243136222090698</v>
+        <v>1.373728658420021</v>
       </c>
       <c r="D6">
-        <v>0.01933470107326229</v>
+        <v>0.01380906693658801</v>
       </c>
       <c r="E6">
-        <v>0.3163983286809184</v>
+        <v>1.077013445350431</v>
       </c>
       <c r="F6">
-        <v>1.119790873934249</v>
+        <v>1.590791686505156</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6573939500089239</v>
+        <v>0.6687336125262249</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.019782994033985</v>
+        <v>0.5525515836607475</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.171961823827075</v>
+        <v>3.419641351391874</v>
       </c>
       <c r="C7">
-        <v>0.4441999115416593</v>
+        <v>1.448540327794092</v>
       </c>
       <c r="D7">
-        <v>0.01927047988786512</v>
+        <v>0.01388041977399723</v>
       </c>
       <c r="E7">
-        <v>0.331830384154614</v>
+        <v>1.138304877395285</v>
       </c>
       <c r="F7">
-        <v>1.135068237959004</v>
+        <v>1.663812354321578</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.661301100826023</v>
+        <v>0.6926017282862205</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.014615229045823</v>
+        <v>0.538192291457122</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.376199399961763</v>
+        <v>4.201428058517763</v>
       </c>
       <c r="C8">
-        <v>0.5322568711487179</v>
+        <v>1.785938557778081</v>
       </c>
       <c r="D8">
-        <v>0.01903607571363963</v>
+        <v>0.01451333810028999</v>
       </c>
       <c r="E8">
-        <v>0.4002460886429873</v>
+        <v>1.417877381015032</v>
       </c>
       <c r="F8">
-        <v>1.204762350224854</v>
+        <v>1.999512855749515</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6798461201412564</v>
+        <v>0.8043792412343009</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9929505784159041</v>
+        <v>0.4783937106510372</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.780764153406892</v>
+        <v>5.80812641442526</v>
       </c>
       <c r="C9">
-        <v>0.7061947151043455</v>
+        <v>2.485718847995827</v>
       </c>
       <c r="D9">
-        <v>0.01875920105149831</v>
+        <v>0.01730136807773164</v>
       </c>
       <c r="E9">
-        <v>0.535788821193421</v>
+        <v>2.014393196122782</v>
       </c>
       <c r="F9">
-        <v>1.349887909244501</v>
+        <v>2.723277225507303</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7210197532924383</v>
+        <v>1.054203518685782</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9546052659177207</v>
+        <v>0.3762317027079334</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.08077230338705</v>
+        <v>7.060639951364749</v>
       </c>
       <c r="C10">
-        <v>0.8349296160035919</v>
+        <v>3.037414912429881</v>
       </c>
       <c r="D10">
-        <v>0.01867358378142114</v>
+        <v>0.02079044300144872</v>
       </c>
       <c r="E10">
-        <v>0.636450542645548</v>
+        <v>2.501278336240517</v>
       </c>
       <c r="F10">
-        <v>1.461933247349464</v>
+        <v>3.31502079775882</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7543200522087972</v>
+        <v>1.265193338426428</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9289952987538861</v>
+        <v>0.3130665793633369</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.217924869523586</v>
+        <v>7.653881943103727</v>
       </c>
       <c r="C11">
-        <v>0.8937386091240569</v>
+        <v>3.300693979500977</v>
       </c>
       <c r="D11">
-        <v>0.01866162578351194</v>
+        <v>0.02284037617461721</v>
       </c>
       <c r="E11">
-        <v>0.6825312684266436</v>
+        <v>2.739125069439936</v>
       </c>
       <c r="F11">
-        <v>1.514142216851695</v>
+        <v>3.603006109277743</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7701580401969039</v>
+        <v>1.36965188622365</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9179096619487979</v>
+        <v>0.2876838599424545</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.269963472863196</v>
+        <v>7.882733531335475</v>
       </c>
       <c r="C12">
-        <v>0.9160465645317117</v>
+        <v>3.402607073923434</v>
       </c>
       <c r="D12">
-        <v>0.0186610976509769</v>
+        <v>0.02369989611904444</v>
       </c>
       <c r="E12">
-        <v>0.7000266628881207</v>
+        <v>2.832192262767038</v>
       </c>
       <c r="F12">
-        <v>1.534095255452371</v>
+        <v>3.715377750069194</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7762567557253419</v>
+        <v>1.410695886053304</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9137937574140693</v>
+        <v>0.2786366691918118</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.2587514234379</v>
+        <v>7.83324399612053</v>
       </c>
       <c r="C13">
-        <v>0.9112404005356325</v>
+        <v>3.380551511498595</v>
       </c>
       <c r="D13">
-        <v>0.0186610315642568</v>
+        <v>0.02351076546475639</v>
       </c>
       <c r="E13">
-        <v>0.6962566223281641</v>
+        <v>2.812002924462121</v>
       </c>
       <c r="F13">
-        <v>1.529789816759688</v>
+        <v>3.691017608253304</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7749387535038181</v>
+        <v>1.401785200892974</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9146765315895671</v>
+        <v>0.2805585049178845</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.2222040482431</v>
+        <v>7.672620015774953</v>
       </c>
       <c r="C14">
-        <v>0.8955731150404063</v>
+        <v>3.309031109815749</v>
       </c>
       <c r="D14">
-        <v>0.01866150147474244</v>
+        <v>0.02290930908197097</v>
       </c>
       <c r="E14">
-        <v>0.6839696872497427</v>
+        <v>2.746717301233502</v>
       </c>
       <c r="F14">
-        <v>1.515780079165381</v>
+        <v>3.612180466398371</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7706577447913077</v>
+        <v>1.37299702112972</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9175693961619196</v>
+        <v>0.2869276829153549</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.199831132061433</v>
+        <v>7.574808496928483</v>
       </c>
       <c r="C15">
-        <v>0.8859815169456056</v>
+        <v>3.26552626412564</v>
       </c>
       <c r="D15">
-        <v>0.01866231381580974</v>
+        <v>0.02255231369912281</v>
       </c>
       <c r="E15">
-        <v>0.6764496476126993</v>
+        <v>2.707140839581285</v>
       </c>
       <c r="F15">
-        <v>1.507222628932141</v>
+        <v>3.564343177885632</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7680487461037444</v>
+        <v>1.35556621452946</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9193520606761254</v>
+        <v>0.290905305453883</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.071823072738027</v>
+        <v>7.02240913055391</v>
       </c>
       <c r="C16">
-        <v>0.8310915125155702</v>
+        <v>3.020492438420945</v>
       </c>
       <c r="D16">
-        <v>0.01867491848107505</v>
+        <v>0.02066711857395731</v>
       </c>
       <c r="E16">
-        <v>0.633445221417773</v>
+        <v>2.486115209478825</v>
       </c>
       <c r="F16">
-        <v>1.458546580191637</v>
+        <v>3.296628006511412</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7532990526687229</v>
+        <v>1.258558946271052</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.929731199063383</v>
+        <v>0.3147995026564203</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.993470925925237</v>
+        <v>6.690074722736028</v>
       </c>
       <c r="C17">
-        <v>0.7974834466871812</v>
+        <v>2.873610654818833</v>
       </c>
       <c r="D17">
-        <v>0.01868964761732528</v>
+        <v>0.01963973060765767</v>
       </c>
       <c r="E17">
-        <v>0.6071403153444521</v>
+        <v>2.3551229141232</v>
       </c>
       <c r="F17">
-        <v>1.429005889067014</v>
+        <v>3.137604072041199</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7444286503622948</v>
+        <v>1.201392672364577</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9362436128909799</v>
+        <v>0.3303695715508752</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.948468322837186</v>
+        <v>6.501074613827257</v>
       </c>
       <c r="C18">
-        <v>0.7781760405782165</v>
+        <v>2.790254994602492</v>
       </c>
       <c r="D18">
-        <v>0.01870065255525333</v>
+        <v>0.01909114456858418</v>
       </c>
       <c r="E18">
-        <v>0.592037403652057</v>
+        <v>2.281272369502076</v>
       </c>
       <c r="F18">
-        <v>1.412131211511991</v>
+        <v>3.047863341462545</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7393914045231753</v>
+        <v>1.169291035286321</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9400424614798908</v>
+        <v>0.3396346317923999</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.933241982149468</v>
+        <v>6.437429306871536</v>
       </c>
       <c r="C19">
-        <v>0.7716427625505276</v>
+        <v>2.762213790877581</v>
       </c>
       <c r="D19">
-        <v>0.01870481012150549</v>
+        <v>0.01891223284239985</v>
       </c>
       <c r="E19">
-        <v>0.5869283286249072</v>
+        <v>2.256507165234098</v>
       </c>
       <c r="F19">
-        <v>1.40643758340525</v>
+        <v>3.017758477882126</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.737696942551608</v>
+        <v>1.158548504665504</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9413377783360701</v>
+        <v>0.3428225561285103</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.001805043607987</v>
+        <v>6.725224362624374</v>
       </c>
       <c r="C20">
-        <v>0.8010586757072247</v>
+        <v>2.889126945643625</v>
       </c>
       <c r="D20">
-        <v>0.0186878166532054</v>
+        <v>0.01974460820291313</v>
       </c>
       <c r="E20">
-        <v>0.6099376967771946</v>
+        <v>2.368908618963985</v>
       </c>
       <c r="F20">
-        <v>1.432138472512435</v>
+        <v>3.154349824642708</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7453662010517519</v>
+        <v>1.207395750300066</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.935544855845535</v>
+        <v>0.3286795300023755</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.232936096178037</v>
+        <v>7.719677518516619</v>
       </c>
       <c r="C21">
-        <v>0.9001739156577742</v>
+        <v>3.32997419400931</v>
       </c>
       <c r="D21">
-        <v>0.01866125392796647</v>
+        <v>0.02308355633451953</v>
       </c>
       <c r="E21">
-        <v>0.6875773871021522</v>
+        <v>2.765805814711683</v>
       </c>
       <c r="F21">
-        <v>1.519890085992898</v>
+        <v>3.635241190738782</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7719124173112704</v>
+        <v>1.381409976744422</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9167174600614842</v>
+        <v>0.285040821145401</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.38458974426311</v>
+        <v>8.394648816563404</v>
       </c>
       <c r="C22">
-        <v>0.9651758285419874</v>
+        <v>3.631294682551925</v>
       </c>
       <c r="D22">
-        <v>0.01866726640396266</v>
+        <v>0.02576234184941839</v>
       </c>
       <c r="E22">
-        <v>0.7385872800035287</v>
+        <v>3.043127989565264</v>
       </c>
       <c r="F22">
-        <v>1.578307509139734</v>
+        <v>3.969268064224707</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7898528354055259</v>
+        <v>1.503984222551537</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9048909335181037</v>
+        <v>0.2598651992991918</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.303593272698947</v>
+        <v>8.031785501676382</v>
       </c>
       <c r="C23">
-        <v>0.9304616225160771</v>
+        <v>3.469089716533176</v>
       </c>
       <c r="D23">
-        <v>0.01866187882006187</v>
+        <v>0.02428040950908184</v>
       </c>
       <c r="E23">
-        <v>0.7113364733707357</v>
+        <v>2.893212021663373</v>
       </c>
       <c r="F23">
-        <v>1.547029931490101</v>
+        <v>3.788942996706254</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7802229355520041</v>
+        <v>1.437648548815133</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9111589380551806</v>
+        <v>0.2729632391786438</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.998037055126417</v>
+        <v>6.709326843455528</v>
       </c>
       <c r="C24">
-        <v>0.7994422702759607</v>
+        <v>2.882108671830167</v>
       </c>
       <c r="D24">
-        <v>0.01868863653876218</v>
+        <v>0.01969706319317055</v>
       </c>
       <c r="E24">
-        <v>0.6086729382376603</v>
+        <v>2.362671604732427</v>
       </c>
       <c r="F24">
-        <v>1.430721893424504</v>
+        <v>3.146773868285806</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7449421399710729</v>
+        <v>1.204679398455454</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9358605933551623</v>
+        <v>0.3294426269185635</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.670853665900438</v>
+        <v>5.363072340421922</v>
       </c>
       <c r="C25">
-        <v>0.6589872455524528</v>
+        <v>2.29100584355831</v>
       </c>
       <c r="D25">
-        <v>0.01881388412277829</v>
+        <v>0.01633640069202258</v>
       </c>
       <c r="E25">
-        <v>0.4989489557592321</v>
+        <v>1.846111455660463</v>
       </c>
       <c r="F25">
-        <v>1.309695057901877</v>
+        <v>2.518612197933948</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7093543365496231</v>
+        <v>0.9825283241367373</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9645315964188583</v>
+        <v>0.4020038869163116</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.417383956843253</v>
+        <v>2.543131533338226</v>
       </c>
       <c r="C2">
-        <v>1.87949262843523</v>
+        <v>0.466989181457933</v>
       </c>
       <c r="D2">
-        <v>0.01477443718025739</v>
+        <v>0.04598082983213203</v>
       </c>
       <c r="E2">
-        <v>1.496313009491487</v>
+        <v>0.07124074492485555</v>
       </c>
       <c r="F2">
-        <v>2.094272068126372</v>
+        <v>0.6035196676304864</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0001158492736903494</v>
       </c>
       <c r="I2">
-        <v>0.8364637234534413</v>
+        <v>0.0007778870108445801</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3469957210540002</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4631294545099465</v>
+        <v>0.3466017388275446</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8078674161833135</v>
+      </c>
+      <c r="Q2">
+        <v>1.784388533798051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.795988648381126</v>
+        <v>2.215789660002827</v>
       </c>
       <c r="C3">
-        <v>1.610712836498237</v>
+        <v>0.4207725644349409</v>
       </c>
       <c r="D3">
-        <v>0.01412274801998947</v>
+        <v>0.04149612510233425</v>
       </c>
       <c r="E3">
-        <v>1.272039294440191</v>
+        <v>0.06736501062718503</v>
       </c>
       <c r="F3">
-        <v>1.823928079507183</v>
+        <v>0.5557161497909249</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.005775014499392E-06</v>
       </c>
       <c r="I3">
-        <v>0.7455226647765016</v>
+        <v>0.0004434526334349265</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3401118824078573</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5084800860244023</v>
+        <v>0.3060319422237541</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.815398341282588</v>
+      </c>
+      <c r="Q3">
+        <v>1.670203386410464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.421683809923536</v>
+        <v>2.014086320175352</v>
       </c>
       <c r="C4">
-        <v>1.449419207805136</v>
+        <v>0.3924775107644933</v>
       </c>
       <c r="D4">
-        <v>0.01388141281138999</v>
+        <v>0.03874210013831458</v>
       </c>
       <c r="E4">
-        <v>1.139026430524495</v>
+        <v>0.06495168347308322</v>
       </c>
       <c r="F4">
-        <v>1.664673466798604</v>
+        <v>0.526869662443147</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0001105386076456494</v>
       </c>
       <c r="I4">
-        <v>0.6928842427448672</v>
+        <v>0.0004354685998433361</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3361264123697296</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5380261288578083</v>
+        <v>0.281141157480306</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8206985428132256</v>
+      </c>
+      <c r="Q4">
+        <v>1.601570652547707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.270663032415825</v>
+        <v>1.930542199923565</v>
       </c>
       <c r="C5">
-        <v>1.384470553418737</v>
+        <v>0.3814144975031013</v>
       </c>
       <c r="D5">
-        <v>0.0138176966541792</v>
+        <v>0.03766000103928491</v>
       </c>
       <c r="E5">
-        <v>1.085798420844952</v>
+        <v>0.0639212437468597</v>
       </c>
       <c r="F5">
-        <v>1.601242043763691</v>
+        <v>0.5147632839863547</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0001955031643212646</v>
       </c>
       <c r="I5">
-        <v>0.6721385433983329</v>
+        <v>0.0005451937696774323</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3341907225844274</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5504632661884052</v>
+        <v>0.2710615427719887</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8233303648426329</v>
+      </c>
+      <c r="Q5">
+        <v>1.572354800535436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.2456691223814</v>
+        <v>1.91523526942791</v>
       </c>
       <c r="C6">
-        <v>1.373728658420021</v>
+        <v>0.3801327421445251</v>
       </c>
       <c r="D6">
-        <v>0.01380906693658801</v>
+        <v>0.03753009234226568</v>
       </c>
       <c r="E6">
-        <v>1.077013445350431</v>
+        <v>0.0637031697775825</v>
       </c>
       <c r="F6">
-        <v>1.590791686505156</v>
+        <v>0.512185887477834</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0002128166685386734</v>
       </c>
       <c r="I6">
-        <v>0.6687336125262249</v>
+        <v>0.0006542341624022896</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3334216215437813</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5525515836607475</v>
+        <v>0.2694631089831461</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8241548281772282</v>
+      </c>
+      <c r="Q6">
+        <v>1.56557409266361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.419641351391874</v>
+        <v>2.009059653254667</v>
       </c>
       <c r="C7">
-        <v>1.448540327794092</v>
+        <v>0.3938475004358821</v>
       </c>
       <c r="D7">
-        <v>0.01388041977399723</v>
+        <v>0.03886405695027406</v>
       </c>
       <c r="E7">
-        <v>1.138304877395285</v>
+        <v>0.06481121026383896</v>
       </c>
       <c r="F7">
-        <v>1.663812354321578</v>
+        <v>0.5251362106234794</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.000112967548011822</v>
       </c>
       <c r="I7">
-        <v>0.6926017282862205</v>
+        <v>0.0006616316534167055</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.334868002363784</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.538192291457122</v>
+        <v>0.2812113623096479</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8217792068733587</v>
+      </c>
+      <c r="Q7">
+        <v>1.59584522568224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.201428058517763</v>
+        <v>2.42518929026761</v>
       </c>
       <c r="C8">
-        <v>1.785938557778081</v>
+        <v>0.4530678101897365</v>
       </c>
       <c r="D8">
-        <v>0.01451333810028999</v>
+        <v>0.04461752298094268</v>
       </c>
       <c r="E8">
-        <v>1.417877381015032</v>
+        <v>0.0697441888806587</v>
       </c>
       <c r="F8">
-        <v>1.999512855749515</v>
+        <v>0.5848423404318552</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.913481220285675E-05</v>
       </c>
       <c r="I8">
-        <v>0.8043792412343009</v>
+        <v>0.0008868824001764253</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3429420560290275</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4783937106510372</v>
+        <v>0.3328835059275548</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8117694896721019</v>
+      </c>
+      <c r="Q8">
+        <v>1.737626392846096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.80812641442526</v>
+        <v>3.242980062120694</v>
       </c>
       <c r="C9">
-        <v>2.485718847995827</v>
+        <v>0.5673467249187354</v>
       </c>
       <c r="D9">
-        <v>0.01730136807773164</v>
+        <v>0.05566418972696852</v>
       </c>
       <c r="E9">
-        <v>2.014393196122782</v>
+        <v>0.07940340872107576</v>
       </c>
       <c r="F9">
-        <v>2.723277225507303</v>
+        <v>0.7091846278123199</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001383428472279902</v>
       </c>
       <c r="I9">
-        <v>1.054203518685782</v>
+        <v>0.002685879834438687</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3630380103620396</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3762317027079334</v>
+        <v>0.4341198919331362</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.7957636386098201</v>
+      </c>
+      <c r="Q9">
+        <v>2.038137341601811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.060639951364749</v>
+        <v>3.820606269118798</v>
       </c>
       <c r="C10">
-        <v>3.037414912429881</v>
+        <v>0.657903138495783</v>
       </c>
       <c r="D10">
-        <v>0.02079044300144872</v>
+        <v>0.06462908917846022</v>
       </c>
       <c r="E10">
-        <v>2.501278336240517</v>
+        <v>0.08336282046075638</v>
       </c>
       <c r="F10">
-        <v>3.31502079775882</v>
+        <v>0.7950392369019994</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003467783175160832</v>
       </c>
       <c r="I10">
-        <v>1.265193338426428</v>
+        <v>0.005267271797224637</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3732022912710207</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3130665793633369</v>
+        <v>0.4888212546348427</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7940961705269913</v>
+      </c>
+      <c r="Q10">
+        <v>2.238762337246442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.653881943103727</v>
+        <v>3.913745831884228</v>
       </c>
       <c r="C11">
-        <v>3.300693979500977</v>
+        <v>0.7467883528070445</v>
       </c>
       <c r="D11">
-        <v>0.02284037617461721</v>
+        <v>0.07589064072624296</v>
       </c>
       <c r="E11">
-        <v>2.739125069439936</v>
+        <v>0.06588962946914734</v>
       </c>
       <c r="F11">
-        <v>3.603006109277743</v>
+        <v>0.7628418860610253</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02195647564074577</v>
       </c>
       <c r="I11">
-        <v>1.36965188622365</v>
+        <v>0.006506724870773084</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3305210238924587</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2876838599424545</v>
+        <v>0.3538046394779428</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.8517243451585017</v>
+      </c>
+      <c r="Q11">
+        <v>2.091281163684101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.882733531335475</v>
+        <v>3.874471228880452</v>
       </c>
       <c r="C12">
-        <v>3.402607073923434</v>
+        <v>0.8030688130635042</v>
       </c>
       <c r="D12">
-        <v>0.02369989611904444</v>
+        <v>0.08383785552868517</v>
       </c>
       <c r="E12">
-        <v>2.832192262767038</v>
+        <v>0.05942301784600423</v>
       </c>
       <c r="F12">
-        <v>3.715377750069194</v>
+        <v>0.7199738062895875</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06035655773620618</v>
       </c>
       <c r="I12">
-        <v>1.410695886053304</v>
+        <v>0.006599822511861753</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2960831658830827</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2786366691918118</v>
+        <v>0.247716549078433</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.9054218426064295</v>
+      </c>
+      <c r="Q12">
+        <v>1.934931512409605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.83324399612053</v>
+        <v>3.725141318291435</v>
       </c>
       <c r="C13">
-        <v>3.380551511498595</v>
+        <v>0.8393114173987897</v>
       </c>
       <c r="D13">
-        <v>0.02351076546475639</v>
+        <v>0.08982321119508185</v>
       </c>
       <c r="E13">
-        <v>2.812002924462121</v>
+        <v>0.06067492708616395</v>
       </c>
       <c r="F13">
-        <v>3.691017608253304</v>
+        <v>0.66387041372775</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1156361664092032</v>
       </c>
       <c r="I13">
-        <v>1.401785200892974</v>
+        <v>0.006112215224590933</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2640329623553832</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2805585049178845</v>
+        <v>0.1585352007195056</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.959704413579189</v>
+      </c>
+      <c r="Q13">
+        <v>1.754229585179814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.672620015774953</v>
+        <v>3.570308014246848</v>
       </c>
       <c r="C14">
-        <v>3.309031109815749</v>
+        <v>0.8562086167899281</v>
       </c>
       <c r="D14">
-        <v>0.02290930908197097</v>
+        <v>0.09319438155212367</v>
       </c>
       <c r="E14">
-        <v>2.746717301233502</v>
+        <v>0.06614450830519303</v>
       </c>
       <c r="F14">
-        <v>3.612180466398371</v>
+        <v>0.6185774799200416</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1645937830038378</v>
       </c>
       <c r="I14">
-        <v>1.37299702112972</v>
+        <v>0.005608336044890194</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2428271391609158</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2869276829153549</v>
+        <v>0.1069589396011779</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.9987020611285544</v>
+      </c>
+      <c r="Q14">
+        <v>1.616856690939699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.574808496928483</v>
+        <v>3.508164713365431</v>
       </c>
       <c r="C15">
-        <v>3.26552626412564</v>
+        <v>0.8563423024263273</v>
       </c>
       <c r="D15">
-        <v>0.02255231369912281</v>
+        <v>0.09358179869751382</v>
       </c>
       <c r="E15">
-        <v>2.707140839581285</v>
+        <v>0.06795155533842134</v>
       </c>
       <c r="F15">
-        <v>3.564343177885632</v>
+        <v>0.6042618684433521</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1769340099239969</v>
       </c>
       <c r="I15">
-        <v>1.35556621452946</v>
+        <v>0.005471242222602868</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2376344387395157</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.290905305453883</v>
+        <v>0.09559046324781661</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>1.007987619579751</v>
+      </c>
+      <c r="Q15">
+        <v>1.576423855744309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.02240913055391</v>
+        <v>3.291309785754095</v>
       </c>
       <c r="C16">
-        <v>3.020492438420945</v>
+        <v>0.8093587447934283</v>
       </c>
       <c r="D16">
-        <v>0.02066711857395731</v>
+        <v>0.0883570848906885</v>
       </c>
       <c r="E16">
-        <v>2.486115209478825</v>
+        <v>0.06583558337881534</v>
       </c>
       <c r="F16">
-        <v>3.296628006511412</v>
+        <v>0.578237184956393</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.16337452433919</v>
       </c>
       <c r="I16">
-        <v>1.258558946271052</v>
+        <v>0.004524268859729119</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2393023306838771</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3147995026564203</v>
+        <v>0.09302943992924639</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.9946411914413318</v>
+      </c>
+      <c r="Q16">
+        <v>1.525355048446528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.690074722736028</v>
+        <v>3.206812514298633</v>
       </c>
       <c r="C17">
-        <v>2.873610654818833</v>
+        <v>0.7645198163484679</v>
       </c>
       <c r="D17">
-        <v>0.01963973060765767</v>
+        <v>0.08256775283131645</v>
       </c>
       <c r="E17">
-        <v>2.3551229141232</v>
+        <v>0.06053837489211222</v>
       </c>
       <c r="F17">
-        <v>3.137604072041199</v>
+        <v>0.5822469461614261</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1251810456669631</v>
       </c>
       <c r="I17">
-        <v>1.201392672364577</v>
+        <v>0.004104088742769463</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.251613634839714</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3303695715508752</v>
+        <v>0.1162254581148972</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.963966797643522</v>
+      </c>
+      <c r="Q17">
+        <v>1.558591686278135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.501074613827257</v>
+        <v>3.229158116206008</v>
       </c>
       <c r="C18">
-        <v>2.790254994602492</v>
+        <v>0.7159465729544081</v>
       </c>
       <c r="D18">
-        <v>0.01909114456858418</v>
+        <v>0.07571142559408628</v>
       </c>
       <c r="E18">
-        <v>2.281272369502076</v>
+        <v>0.05618677057400845</v>
       </c>
       <c r="F18">
-        <v>3.047863341462545</v>
+        <v>0.6138643598778444</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0723046554609823</v>
       </c>
       <c r="I18">
-        <v>1.169291035286321</v>
+        <v>0.003776661881940591</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2762711648317477</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3396346317923999</v>
+        <v>0.1741684888141819</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.9162222932309874</v>
+      </c>
+      <c r="Q18">
+        <v>1.673601326200497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.437429306871536</v>
+        <v>3.32852853567482</v>
       </c>
       <c r="C19">
-        <v>2.762213790877581</v>
+        <v>0.672847278089165</v>
       </c>
       <c r="D19">
-        <v>0.01891223284239985</v>
+        <v>0.06912770715156569</v>
       </c>
       <c r="E19">
-        <v>2.256507165234098</v>
+        <v>0.05927723241956251</v>
       </c>
       <c r="F19">
-        <v>3.017758477882126</v>
+        <v>0.6634495283201218</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02740864375190455</v>
       </c>
       <c r="I19">
-        <v>1.158548504665504</v>
+        <v>0.004051219454950683</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3090250477150605</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3428225561285103</v>
+        <v>0.2715323662597768</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8651940934765463</v>
+      </c>
+      <c r="Q19">
+        <v>1.84126225650806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.725224362624374</v>
+        <v>3.655800521235506</v>
       </c>
       <c r="C20">
-        <v>2.889126945643625</v>
+        <v>0.6391922112699433</v>
       </c>
       <c r="D20">
-        <v>0.01974460820291313</v>
+        <v>0.06274934342153671</v>
       </c>
       <c r="E20">
-        <v>2.368908618963985</v>
+        <v>0.08181989922055344</v>
       </c>
       <c r="F20">
-        <v>3.154349824642708</v>
+        <v>0.76698414854053</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002805624108182414</v>
       </c>
       <c r="I20">
-        <v>1.207395750300066</v>
+        <v>0.005189325485364549</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3664085242058306</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3286795300023755</v>
+        <v>0.4742530162784391</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7982602519765294</v>
+      </c>
+      <c r="Q20">
+        <v>2.167588861541248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.719677518516619</v>
+        <v>4.129572964643614</v>
       </c>
       <c r="C21">
-        <v>3.32997419400931</v>
+        <v>0.700503199034614</v>
       </c>
       <c r="D21">
-        <v>0.02308355633451953</v>
+        <v>0.06839625574410491</v>
       </c>
       <c r="E21">
-        <v>2.765805814711683</v>
+        <v>0.08950852040367074</v>
       </c>
       <c r="F21">
-        <v>3.635241190738782</v>
+        <v>0.8476018594462573</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.004750244783944702</v>
       </c>
       <c r="I21">
-        <v>1.381409976744422</v>
+        <v>0.007552054258704644</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3840009828781916</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.285040821145401</v>
+        <v>0.5474108440089509</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.7887244581270565</v>
+      </c>
+      <c r="Q21">
+        <v>2.370583476337998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.394648816563404</v>
+        <v>4.434793399002899</v>
       </c>
       <c r="C22">
-        <v>3.631294682551925</v>
+        <v>0.7412991160086051</v>
       </c>
       <c r="D22">
-        <v>0.02576234184941839</v>
+        <v>0.07229434001040858</v>
       </c>
       <c r="E22">
-        <v>3.043127989565264</v>
+        <v>0.09318030521223619</v>
       </c>
       <c r="F22">
-        <v>3.969268064224707</v>
+        <v>0.899078301766707</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.006282526299645985</v>
       </c>
       <c r="I22">
-        <v>1.503984222551537</v>
+        <v>0.009073297903628763</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.394650191348191</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2598651992991918</v>
+        <v>0.5848178180149688</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7845994996031322</v>
+      </c>
+      <c r="Q22">
+        <v>2.498773863435844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.031785501676382</v>
+        <v>4.276703176006151</v>
       </c>
       <c r="C23">
-        <v>3.469089716533176</v>
+        <v>0.7176188757872239</v>
       </c>
       <c r="D23">
-        <v>0.02428040950908184</v>
+        <v>0.07004282082380797</v>
       </c>
       <c r="E23">
-        <v>2.893212021663373</v>
+        <v>0.09136808319854062</v>
       </c>
       <c r="F23">
-        <v>3.788942996706254</v>
+        <v>0.8733984453177044</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.00545039756161475</v>
       </c>
       <c r="I23">
-        <v>1.437648548815133</v>
+        <v>0.007972940398430772</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3903735258188945</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2729632391786438</v>
+        <v>0.5645873150056531</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7852694765285904</v>
+      </c>
+      <c r="Q23">
+        <v>2.436458891889004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.709326843455528</v>
+        <v>3.669998984056065</v>
       </c>
       <c r="C24">
-        <v>2.882108671830167</v>
+        <v>0.6314479192477336</v>
       </c>
       <c r="D24">
-        <v>0.01969706319317055</v>
+        <v>0.0618056433977543</v>
       </c>
       <c r="E24">
-        <v>2.362671604732427</v>
+        <v>0.0842665382582215</v>
       </c>
       <c r="F24">
-        <v>3.146773868285806</v>
+        <v>0.7749066745888626</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002777915808254372</v>
       </c>
       <c r="I24">
-        <v>1.204679398455454</v>
+        <v>0.004767202312449648</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3726436872262582</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3294426269185635</v>
+        <v>0.4886242158480911</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.7917045969895469</v>
+      </c>
+      <c r="Q24">
+        <v>2.195418210753814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.363072340421922</v>
+        <v>3.015035008056316</v>
       </c>
       <c r="C25">
-        <v>2.29100584355831</v>
+        <v>0.5391205198409068</v>
       </c>
       <c r="D25">
-        <v>0.01633640069202258</v>
+        <v>0.05292674369726313</v>
       </c>
       <c r="E25">
-        <v>1.846111455660463</v>
+        <v>0.07658529045814433</v>
       </c>
       <c r="F25">
-        <v>2.518612197933948</v>
+        <v>0.6721502717972569</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0008383542645087338</v>
       </c>
       <c r="I25">
-        <v>0.9825283241367373</v>
+        <v>0.002379134263160054</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3551426990876898</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1682,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4020038869163116</v>
+        <v>0.4070650617684493</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8015498437491431</v>
+      </c>
+      <c r="Q25">
+        <v>1.945606696226889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.543131533338226</v>
+        <v>2.458319676686358</v>
       </c>
       <c r="C2">
-        <v>0.466989181457933</v>
+        <v>0.4941967983712061</v>
       </c>
       <c r="D2">
-        <v>0.04598082983213203</v>
+        <v>0.04849261328440946</v>
       </c>
       <c r="E2">
-        <v>0.07124074492485555</v>
+        <v>0.06851345152527522</v>
       </c>
       <c r="F2">
-        <v>0.6035196676304864</v>
+        <v>0.5641320661654277</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001158492736903494</v>
+        <v>0.000200613878041711</v>
       </c>
       <c r="I2">
-        <v>0.0007778870108445801</v>
+        <v>0.001087964840365885</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.3469957210540002</v>
+        <v>0.3116121834467407</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.167722642463108</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07738525421722642</v>
       </c>
       <c r="N2">
-        <v>0.3466017388275446</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8078674161833135</v>
+        <v>0.354292891695593</v>
       </c>
       <c r="Q2">
-        <v>1.784388533798051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8221518658678448</v>
+      </c>
+      <c r="S2">
+        <v>1.646649638666105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.215789660002827</v>
+        <v>2.147945453290845</v>
       </c>
       <c r="C3">
-        <v>0.4207725644349409</v>
+        <v>0.4399780534969011</v>
       </c>
       <c r="D3">
-        <v>0.04149612510233425</v>
+        <v>0.04329187041588511</v>
       </c>
       <c r="E3">
-        <v>0.06736501062718503</v>
+        <v>0.0651466979812696</v>
       </c>
       <c r="F3">
-        <v>0.5557161497909249</v>
+        <v>0.5220254757003815</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.005775014499392E-06</v>
+        <v>3.839284117290731E-06</v>
       </c>
       <c r="I3">
-        <v>0.0004434526334349265</v>
+        <v>0.000639029012892145</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.3401118824078573</v>
+        <v>0.3083032224397648</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1713356273320983</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07235511630156743</v>
       </c>
       <c r="N3">
-        <v>0.3060319422237541</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.815398341282588</v>
+        <v>0.3130724974046899</v>
       </c>
       <c r="Q3">
-        <v>1.670203386410464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.822076864589981</v>
+      </c>
+      <c r="S3">
+        <v>1.551020520491363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.014086320175352</v>
+        <v>1.956342814481218</v>
       </c>
       <c r="C4">
-        <v>0.3924775107644933</v>
+        <v>0.406896748166929</v>
       </c>
       <c r="D4">
-        <v>0.03874210013831458</v>
+        <v>0.04010959132045855</v>
       </c>
       <c r="E4">
-        <v>0.06495168347308322</v>
+        <v>0.063041981672459</v>
       </c>
       <c r="F4">
-        <v>0.526869662443147</v>
+        <v>0.496550092592841</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001105386076456494</v>
+        <v>3.379927480962053E-05</v>
       </c>
       <c r="I4">
-        <v>0.0004354685998433361</v>
+        <v>0.0005313088233078744</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.3361264123697296</v>
+        <v>0.3064259531589144</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.173582094567724</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06986429939195737</v>
       </c>
       <c r="N4">
-        <v>0.281141157480306</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8206985428132256</v>
+        <v>0.2877923714224124</v>
       </c>
       <c r="Q4">
-        <v>1.601570652547707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.822810051644808</v>
+      </c>
+      <c r="S4">
+        <v>1.49336693185316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.930542199923565</v>
+        <v>1.876858343786097</v>
       </c>
       <c r="C5">
-        <v>0.3814144975031013</v>
+        <v>0.393939781459153</v>
       </c>
       <c r="D5">
-        <v>0.03766000103928491</v>
+        <v>0.03885776254796269</v>
       </c>
       <c r="E5">
-        <v>0.0639212437468597</v>
+        <v>0.06213817700560753</v>
       </c>
       <c r="F5">
-        <v>0.5147632839863547</v>
+        <v>0.4858016734463391</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001955031643212646</v>
+        <v>8.232036583266655E-05</v>
       </c>
       <c r="I5">
-        <v>0.0005451937696774323</v>
+        <v>0.0006055256285879551</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.3341907225844274</v>
+        <v>0.3053538121692903</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1743348394605349</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06890745808280663</v>
       </c>
       <c r="N5">
-        <v>0.2710615427719887</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8233303648426329</v>
+        <v>0.2775571252772977</v>
       </c>
       <c r="Q5">
-        <v>1.572354800535436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8236426897762286</v>
+      </c>
+      <c r="S5">
+        <v>1.468587037864353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.91523526942791</v>
+        <v>1.86224616804941</v>
       </c>
       <c r="C6">
-        <v>0.3801327421445251</v>
+        <v>0.3923763525299933</v>
       </c>
       <c r="D6">
-        <v>0.03753009234226568</v>
+        <v>0.03870226411311251</v>
       </c>
       <c r="E6">
-        <v>0.0637031697775825</v>
+        <v>0.06194327228877938</v>
       </c>
       <c r="F6">
-        <v>0.512185887477834</v>
+        <v>0.4834663575416513</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002128166685386734</v>
+        <v>9.299956740704829E-05</v>
       </c>
       <c r="I6">
-        <v>0.0006542341624022896</v>
+        <v>0.0007245820566588179</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.3334216215437813</v>
+        <v>0.3047583639638063</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1742536724472217</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06864640027848878</v>
       </c>
       <c r="N6">
-        <v>0.2694631089831461</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8241548281772282</v>
+        <v>0.2759332894385267</v>
       </c>
       <c r="Q6">
-        <v>1.56557409266361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8242142115815412</v>
+      </c>
+      <c r="S6">
+        <v>1.462613891825839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.009059653254667</v>
+        <v>1.951443163801855</v>
       </c>
       <c r="C7">
-        <v>0.3938475004358821</v>
+        <v>0.4083290687471788</v>
       </c>
       <c r="D7">
-        <v>0.03886405695027406</v>
+        <v>0.0402361481862954</v>
       </c>
       <c r="E7">
-        <v>0.06481121026383896</v>
+        <v>0.06290949294255199</v>
       </c>
       <c r="F7">
-        <v>0.5251362106234794</v>
+        <v>0.4948874648265758</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.000112967548011822</v>
+        <v>3.509967544057524E-05</v>
       </c>
       <c r="I7">
-        <v>0.0006616316534167055</v>
+        <v>0.000799178914354215</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.334868002363784</v>
+        <v>0.3052689227152854</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1730436071650736</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06953431603070293</v>
       </c>
       <c r="N7">
-        <v>0.2812113623096479</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8217792068733587</v>
+        <v>0.2878612838768646</v>
       </c>
       <c r="Q7">
-        <v>1.59584522568224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8239922142050133</v>
+      </c>
+      <c r="S7">
+        <v>1.487920613751953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.42518929026761</v>
+        <v>2.346403985963661</v>
       </c>
       <c r="C8">
-        <v>0.4530678101897365</v>
+        <v>0.4776201684388184</v>
       </c>
       <c r="D8">
-        <v>0.04461752298094268</v>
+        <v>0.04689027542098501</v>
       </c>
       <c r="E8">
-        <v>0.0697441888806587</v>
+        <v>0.06720271644150166</v>
       </c>
       <c r="F8">
-        <v>0.5848423404318552</v>
+        <v>0.5475240775647023</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.913481220285675E-05</v>
+        <v>9.860115401028047E-05</v>
       </c>
       <c r="I8">
-        <v>0.0008868824001764253</v>
+        <v>0.001217067849842657</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.3429420560290275</v>
+        <v>0.3089428564568983</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.168301434883368</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07505467041337965</v>
       </c>
       <c r="N8">
-        <v>0.3328835059275548</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8117694896721019</v>
+        <v>0.3403499176129827</v>
       </c>
       <c r="Q8">
-        <v>1.737626392846096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8235970710640288</v>
+      </c>
+      <c r="S8">
+        <v>1.606699586083437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.242980062120694</v>
+        <v>3.11987322022776</v>
       </c>
       <c r="C9">
-        <v>0.5673467249187354</v>
+        <v>0.6125054700607393</v>
       </c>
       <c r="D9">
-        <v>0.05566418972696852</v>
+        <v>0.05978173989542057</v>
       </c>
       <c r="E9">
-        <v>0.07940340872107576</v>
+        <v>0.0755596598467605</v>
       </c>
       <c r="F9">
-        <v>0.7091846278123199</v>
+        <v>0.6568333843874328</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.001383428472279902</v>
+        <v>0.001517438256605219</v>
       </c>
       <c r="I9">
-        <v>0.002685879834438687</v>
+        <v>0.003069942894537547</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.3630380103620396</v>
+        <v>0.3195053044719671</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1601046822063559</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0913565531128846</v>
       </c>
       <c r="N9">
-        <v>0.4341198919331362</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7957636386098201</v>
+        <v>0.4432528379780081</v>
       </c>
       <c r="Q9">
-        <v>2.038137341601811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8270029964570185</v>
+      </c>
+      <c r="S9">
+        <v>1.858192662175668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.820606269118798</v>
+        <v>3.665291443289675</v>
       </c>
       <c r="C10">
-        <v>0.657903138495783</v>
+        <v>0.718593824369151</v>
       </c>
       <c r="D10">
-        <v>0.06462908917846022</v>
+        <v>0.07015187173042392</v>
       </c>
       <c r="E10">
-        <v>0.08336282046075638</v>
+        <v>0.07882125193206413</v>
       </c>
       <c r="F10">
-        <v>0.7950392369019994</v>
+        <v>0.7319512785141598</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.003467783175160832</v>
+        <v>0.003519242584905768</v>
       </c>
       <c r="I10">
-        <v>0.005267271797224637</v>
+        <v>0.005534675685883172</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.3732022912710207</v>
+        <v>0.323264036789169</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1524659348680224</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.104366286604229</v>
       </c>
       <c r="N10">
-        <v>0.4888212546348427</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7940961705269913</v>
+        <v>0.4989067850657989</v>
       </c>
       <c r="Q10">
-        <v>2.238762337246442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8403899154414916</v>
+      </c>
+      <c r="S10">
+        <v>2.024243802212908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.913745831884228</v>
+        <v>3.762182624641071</v>
       </c>
       <c r="C11">
-        <v>0.7467883528070445</v>
+        <v>0.8114969477349518</v>
       </c>
       <c r="D11">
-        <v>0.07589064072624296</v>
+        <v>0.0819074397857662</v>
       </c>
       <c r="E11">
-        <v>0.06588962946914734</v>
+        <v>0.06337064468655651</v>
       </c>
       <c r="F11">
-        <v>0.7628418860610253</v>
+        <v>0.7034616657781783</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02195647564074577</v>
+        <v>0.0219734276396224</v>
       </c>
       <c r="I11">
-        <v>0.006506724870773084</v>
+        <v>0.00682171836691392</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.3305210238924587</v>
+        <v>0.286429682144167</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1357843105879013</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0947053128363784</v>
       </c>
       <c r="N11">
-        <v>0.3538046394779428</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8517243451585017</v>
+        <v>0.3618595129039761</v>
       </c>
       <c r="Q11">
-        <v>2.091281163684101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.906417835292018</v>
+      </c>
+      <c r="S11">
+        <v>1.89235384932806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.874471228880452</v>
+        <v>3.733005795069062</v>
       </c>
       <c r="C12">
-        <v>0.8030688130635042</v>
+        <v>0.8671232094017114</v>
       </c>
       <c r="D12">
-        <v>0.08383785552868517</v>
+        <v>0.08989349855477968</v>
       </c>
       <c r="E12">
-        <v>0.05942301784600423</v>
+        <v>0.05855640109806726</v>
       </c>
       <c r="F12">
-        <v>0.7199738062895875</v>
+        <v>0.6658391581774481</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06035655773620618</v>
+        <v>0.06037255578211642</v>
       </c>
       <c r="I12">
-        <v>0.006599822511861753</v>
+        <v>0.006913155764128653</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.2960831658830827</v>
+        <v>0.2578146508917776</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1248275248145951</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08462177554029537</v>
       </c>
       <c r="N12">
-        <v>0.247716549078433</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9054218426064295</v>
+        <v>0.2539892716308145</v>
       </c>
       <c r="Q12">
-        <v>1.934931512409605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.9628448444718742</v>
+      </c>
+      <c r="S12">
+        <v>1.755605405888417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.725141318291435</v>
+        <v>3.599303936728916</v>
       </c>
       <c r="C13">
-        <v>0.8393114173987897</v>
+        <v>0.8991701645685453</v>
       </c>
       <c r="D13">
-        <v>0.08982321119508185</v>
+        <v>0.09557206159131937</v>
       </c>
       <c r="E13">
-        <v>0.06067492708616395</v>
+        <v>0.06121635908425826</v>
       </c>
       <c r="F13">
-        <v>0.66387041372775</v>
+        <v>0.6165161410137401</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1156361664092032</v>
+        <v>0.115673760545647</v>
       </c>
       <c r="I13">
-        <v>0.006112215224590933</v>
+        <v>0.006463169007105307</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.2640329623553832</v>
+        <v>0.2319847585936223</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1164416548836193</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.07324358552171262</v>
       </c>
       <c r="N13">
-        <v>0.1585352007195056</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.959704413579189</v>
+        <v>0.1631381002712544</v>
       </c>
       <c r="Q13">
-        <v>1.754229585179814</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.015775083083938</v>
+      </c>
+      <c r="S13">
+        <v>1.598905004044212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.570308014246848</v>
+        <v>3.457778142070538</v>
       </c>
       <c r="C14">
-        <v>0.8562086167899281</v>
+        <v>0.911487009136664</v>
       </c>
       <c r="D14">
-        <v>0.09319438155212367</v>
+        <v>0.09856416970992399</v>
       </c>
       <c r="E14">
-        <v>0.06614450830519303</v>
+        <v>0.06750175447642626</v>
       </c>
       <c r="F14">
-        <v>0.6185774799200416</v>
+        <v>0.5765835730770021</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1645937830038378</v>
+        <v>0.164652989614126</v>
       </c>
       <c r="I14">
-        <v>0.005608336044890194</v>
+        <v>0.00601328781504229</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2428271391609158</v>
+        <v>0.2152068428127158</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.111546368865044</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.06492361706686722</v>
       </c>
       <c r="N14">
-        <v>0.1069589396011779</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9987020611285544</v>
+        <v>0.1104831644363813</v>
       </c>
       <c r="Q14">
-        <v>1.616856690939699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.051863716595633</v>
+      </c>
+      <c r="S14">
+        <v>1.480001501416069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.508164713365431</v>
+        <v>3.40000789564391</v>
       </c>
       <c r="C15">
-        <v>0.8563423024263273</v>
+        <v>0.9098540161357391</v>
       </c>
       <c r="D15">
-        <v>0.09358179869751382</v>
+        <v>0.09879589107663378</v>
       </c>
       <c r="E15">
-        <v>0.06795155533842134</v>
+        <v>0.06947221528008996</v>
       </c>
       <c r="F15">
-        <v>0.6042618684433521</v>
+        <v>0.5639066068387208</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1769340099239969</v>
+        <v>0.177001610045096</v>
       </c>
       <c r="I15">
-        <v>0.005471242222602868</v>
+        <v>0.005918050256085827</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.2376344387395157</v>
+        <v>0.2112234096736216</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.11061276112485</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.06254656311502771</v>
       </c>
       <c r="N15">
-        <v>0.09559046324781661</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.007987619579751</v>
+        <v>0.09886415221509992</v>
       </c>
       <c r="Q15">
-        <v>1.576423855744309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.059721733025256</v>
+      </c>
+      <c r="S15">
+        <v>1.445064857125914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.291309785754095</v>
+        <v>3.193450845522875</v>
       </c>
       <c r="C16">
-        <v>0.8093587447934283</v>
+        <v>0.8568732699732493</v>
       </c>
       <c r="D16">
-        <v>0.0883570848906885</v>
+        <v>0.09300225856134148</v>
       </c>
       <c r="E16">
-        <v>0.06583558337881534</v>
+        <v>0.0671716725505842</v>
       </c>
       <c r="F16">
-        <v>0.578237184956393</v>
+        <v>0.5409074587587384</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.16337452433919</v>
+        <v>0.1634673420665109</v>
       </c>
       <c r="I16">
-        <v>0.004524268859729119</v>
+        <v>0.005054334429376084</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.2393023306838771</v>
+        <v>0.214061423611053</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1138589919092166</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05993679299412236</v>
       </c>
       <c r="N16">
-        <v>0.09302943992924639</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9946411914413318</v>
+        <v>0.0963099650036483</v>
       </c>
       <c r="Q16">
-        <v>1.525355048446528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.039855414605341</v>
+      </c>
+      <c r="S16">
+        <v>1.403081608297384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.206812514298633</v>
+        <v>3.109851429198955</v>
       </c>
       <c r="C17">
-        <v>0.7645198163484679</v>
+        <v>0.8099824788907881</v>
       </c>
       <c r="D17">
-        <v>0.08256775283131645</v>
+        <v>0.08699196002731924</v>
       </c>
       <c r="E17">
-        <v>0.06053837489211222</v>
+        <v>0.06136231186542318</v>
       </c>
       <c r="F17">
-        <v>0.5822469461614261</v>
+        <v>0.5444516183167352</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1251810456669631</v>
+        <v>0.1252793182434857</v>
       </c>
       <c r="I17">
-        <v>0.004104088742769463</v>
+        <v>0.004669544076120857</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.251613634839714</v>
+        <v>0.2250332831922073</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1192193952967013</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.06209843326100994</v>
       </c>
       <c r="N17">
-        <v>0.1162254581148972</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.963966797643522</v>
+        <v>0.1200527888827807</v>
       </c>
       <c r="Q17">
-        <v>1.558591686278135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.005909903427963</v>
+      </c>
+      <c r="S17">
+        <v>1.433756613594511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.229158116206008</v>
+        <v>3.125161287961191</v>
       </c>
       <c r="C18">
-        <v>0.7159465729544081</v>
+        <v>0.7621649722111385</v>
       </c>
       <c r="D18">
-        <v>0.07571142559408628</v>
+        <v>0.08015052081730545</v>
       </c>
       <c r="E18">
-        <v>0.05618677057400845</v>
+        <v>0.05605474862892734</v>
       </c>
       <c r="F18">
-        <v>0.6138643598778444</v>
+        <v>0.572470060309918</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0723046554609823</v>
+        <v>0.07240483749447435</v>
       </c>
       <c r="I18">
-        <v>0.003776661881940591</v>
+        <v>0.004300495076986266</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.2762711648317477</v>
+        <v>0.2458135876680423</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1277476580907067</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06892380463451886</v>
       </c>
       <c r="N18">
-        <v>0.1741684888141819</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9162222932309874</v>
+        <v>0.1791465137790524</v>
       </c>
       <c r="Q18">
-        <v>1.673601326200497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9567645273497334</v>
+      </c>
+      <c r="S18">
+        <v>1.535463011243223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.32852853567482</v>
+        <v>3.211673204978865</v>
       </c>
       <c r="C19">
-        <v>0.672847278089165</v>
+        <v>0.7218196179690324</v>
       </c>
       <c r="D19">
-        <v>0.06912770715156569</v>
+        <v>0.07373663087802385</v>
       </c>
       <c r="E19">
-        <v>0.05927723241956251</v>
+        <v>0.05773142141094922</v>
       </c>
       <c r="F19">
-        <v>0.6634495283201218</v>
+        <v>0.6161310581356361</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02740864375190455</v>
+        <v>0.02751232256375147</v>
       </c>
       <c r="I19">
-        <v>0.004051219454950683</v>
+        <v>0.004585926465465739</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.3090250477150605</v>
+        <v>0.2727667810505991</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1380972753727505</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07890616843301856</v>
       </c>
       <c r="N19">
-        <v>0.2715323662597768</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8651940934765463</v>
+        <v>0.2782023786841279</v>
       </c>
       <c r="Q19">
-        <v>1.84126225650806</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9055054201969739</v>
+      </c>
+      <c r="S19">
+        <v>1.681780665249335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.655800521235506</v>
+        <v>3.509475091860622</v>
       </c>
       <c r="C20">
-        <v>0.6391922112699433</v>
+        <v>0.6961094525578915</v>
       </c>
       <c r="D20">
-        <v>0.06274934342153671</v>
+        <v>0.06792693398528371</v>
       </c>
       <c r="E20">
-        <v>0.08181989922055344</v>
+        <v>0.07749971228204267</v>
       </c>
       <c r="F20">
-        <v>0.76698414854053</v>
+        <v>0.7070295145001779</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.002805624108182414</v>
+        <v>0.002888731918595067</v>
       </c>
       <c r="I20">
-        <v>0.005189325485364549</v>
+        <v>0.005659288687983377</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.3664085242058306</v>
+        <v>0.3186038609127628</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1531218015852218</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0993500690749336</v>
       </c>
       <c r="N20">
-        <v>0.4742530162784391</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7982602519765294</v>
+        <v>0.4840817375395829</v>
       </c>
       <c r="Q20">
-        <v>2.167588861541248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8411010798134839</v>
+      </c>
+      <c r="S20">
+        <v>1.9633868772938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.129572964643614</v>
+        <v>3.954568840638615</v>
       </c>
       <c r="C21">
-        <v>0.700503199034614</v>
+        <v>0.7700535758598335</v>
       </c>
       <c r="D21">
-        <v>0.06839625574410491</v>
+        <v>0.07469184949894014</v>
       </c>
       <c r="E21">
-        <v>0.08950852040367074</v>
+        <v>0.08420858920947971</v>
       </c>
       <c r="F21">
-        <v>0.8476018594462573</v>
+        <v>0.7775794505100748</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.004750244783944702</v>
+        <v>0.004715815174308413</v>
       </c>
       <c r="I21">
-        <v>0.007552054258704644</v>
+        <v>0.007824666863379903</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.3840009828781916</v>
+        <v>0.3294877435703008</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1501630719638278</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1132910614094627</v>
       </c>
       <c r="N21">
-        <v>0.5474108440089509</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7887244581270565</v>
+        <v>0.5584277882680908</v>
       </c>
       <c r="Q21">
-        <v>2.370583476337998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8428850410899145</v>
+      </c>
+      <c r="S21">
+        <v>2.133272459919425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.434793399002899</v>
+        <v>4.241571106703191</v>
       </c>
       <c r="C22">
-        <v>0.7412991160086051</v>
+        <v>0.8188988111479034</v>
       </c>
       <c r="D22">
-        <v>0.07229434001040858</v>
+        <v>0.07931166258982358</v>
       </c>
       <c r="E22">
-        <v>0.09318030521223619</v>
+        <v>0.08736134836293097</v>
       </c>
       <c r="F22">
-        <v>0.899078301766707</v>
+        <v>0.8227174257347656</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006282526299645985</v>
+        <v>0.00613903690547013</v>
       </c>
       <c r="I22">
-        <v>0.009073297903628763</v>
+        <v>0.009107978800440897</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.394650191348191</v>
+        <v>0.3359896449103772</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1479074454002678</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1227055387887006</v>
       </c>
       <c r="N22">
-        <v>0.5848178180149688</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7845994996031322</v>
+        <v>0.5964564220007702</v>
       </c>
       <c r="Q22">
-        <v>2.498773863435844</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.8461102599131465</v>
+      </c>
+      <c r="S22">
+        <v>2.240720818537682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.276703176006151</v>
+        <v>4.093110451267194</v>
       </c>
       <c r="C23">
-        <v>0.7176188757872239</v>
+        <v>0.7907615820291767</v>
       </c>
       <c r="D23">
-        <v>0.07004282082380797</v>
+        <v>0.07666219505721728</v>
       </c>
       <c r="E23">
-        <v>0.09136808319854062</v>
+        <v>0.08581546723844902</v>
       </c>
       <c r="F23">
-        <v>0.8733984453177044</v>
+        <v>0.8003447739270086</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.00545039756161475</v>
+        <v>0.00536788828842244</v>
       </c>
       <c r="I23">
-        <v>0.007972940398430772</v>
+        <v>0.008076364249759216</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.3903735258188945</v>
+        <v>0.3337826148062142</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1495452600625669</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1181635080836116</v>
       </c>
       <c r="N23">
-        <v>0.5645873150056531</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7852694765285904</v>
+        <v>0.5758920275137314</v>
       </c>
       <c r="Q23">
-        <v>2.436458891889004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.8426364227550494</v>
+      </c>
+      <c r="S23">
+        <v>2.189146808098712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.669998984056065</v>
+        <v>3.522275060219954</v>
       </c>
       <c r="C24">
-        <v>0.6314479192477336</v>
+        <v>0.6882270227044955</v>
       </c>
       <c r="D24">
-        <v>0.0618056433977543</v>
+        <v>0.06696093899264355</v>
       </c>
       <c r="E24">
-        <v>0.0842665382582215</v>
+        <v>0.07972744184010061</v>
       </c>
       <c r="F24">
-        <v>0.7749066745888626</v>
+        <v>0.7141979738477033</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.002777915808254372</v>
+        <v>0.002860951984073878</v>
       </c>
       <c r="I24">
-        <v>0.004767202312449648</v>
+        <v>0.005136271571529072</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.3726436872262582</v>
+        <v>0.3239263009478144</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1551751868198536</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1013039957112767</v>
       </c>
       <c r="N24">
-        <v>0.4886242158480911</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7917045969895469</v>
+        <v>0.4986638656229019</v>
       </c>
       <c r="Q24">
-        <v>2.195418210753814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8339005343536599</v>
+      </c>
+      <c r="S24">
+        <v>1.988342429759655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.015035008056316</v>
+        <v>2.904393981149894</v>
       </c>
       <c r="C25">
-        <v>0.5391205198409068</v>
+        <v>0.5787887665655091</v>
       </c>
       <c r="D25">
-        <v>0.05292674369726313</v>
+        <v>0.05655062134835021</v>
       </c>
       <c r="E25">
-        <v>0.07658529045814433</v>
+        <v>0.07311286958742791</v>
       </c>
       <c r="F25">
-        <v>0.6721502717972569</v>
+        <v>0.6241082189417213</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0008383542645087338</v>
+        <v>0.0009749452805942749</v>
       </c>
       <c r="I25">
-        <v>0.002379134263160054</v>
+        <v>0.002861534786120501</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.3551426990876898</v>
+        <v>0.3144759342761709</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1614950825789165</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0856957209745417</v>
       </c>
       <c r="N25">
-        <v>0.4070650617684493</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8015498437491431</v>
+        <v>0.4157445445481471</v>
       </c>
       <c r="Q25">
-        <v>1.945606696226889</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8277367841878274</v>
+      </c>
+      <c r="S25">
+        <v>1.779821068238675</v>
       </c>
     </row>
   </sheetData>
